--- a/backend/output/extracted_data_1758026352056.xlsx
+++ b/backend/output/extracted_data_1758026352056.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
+          <t xml:space="preserve"> https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
         </is>
       </c>
       <c r="W3" s="2" t="inlineStr">
@@ -840,37 +840,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>700 units/mL (1 mL pen), 1050 units/mL (1.5 mL pen), 2100 units/mL (3 mL pen)</t>
+          <t>Awiqli is available in 700 units/mL solution. Each pre-filled pen contains: 700 units in 1 mL solution, 1050 units in 1.5 mL solution, and 2100 units in 3 mL solution.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection in pre-filled pen (FlexTouch)</t>
+          <t>Solution for injection in pre-filled pen (FlexTouch). Clear and colourless isotonic solution.</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous</t>
+          <t>Subcutaneous use only</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Diabetes mellitus in adults (Type 1 and Type 2)</t>
+          <t>Treatment of diabetes mellitus in adults. Includes both type 1 and type 2 diabetes.</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Once-weekly subcutaneous administration; specific dosing instructions for initiation, dose adjustment based on patient needs and conditions (e.g., elderly, renal/hepatic impairment); combined use with other insulin or antidiabetic products; dosing adjustments during acute illness, physical activity changes, or missed doses</t>
+          <t>Awiqli is a once-weekly basal insulin administered at the same day of the week. Initiation doses vary based on patient type (e.g., insulin-naïve type 2 diabetes: 70 units/week; previously treated type 1 diabetes: calculated as total daily basal dose multiplied by 7). Dosing adjustments and missed dose management are described in detail, including specific switching protocols and patient guidance.</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or any of the excipients</t>
+          <t>Hypersensitivity to the active substance or any of the excipients listed in section 6.1.</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Use only subcutaneously, no intravenous or intramuscular use; monitor blood glucose regularly; rotate injection sites; use new needles for each injection; risk of hypoglycemia and hyperglycemia; lipodystrophy or cutaneous amyloidosis; mix-ups with other insulins; use with caution in special populations (e.g., pediatric, elderly, pregnancy)</t>
+          <t>Traceability of the administered product (name and batch number).Hypoglycaemia (risk factors, symptoms, management, prevention).Hyperglycaemia (risk factors, symptoms, management).Lipodystrophy and cutaneous amyloidosis (injection site rotation).Immunogenicity.Avoidance of medication errors (mix-ups, dosing errors).Use of combination with pioglitazone.Special populations (elderly, renal/hepatic impairment, paediatric).Effects on ability to drive and use machines.Undesirable effects (hypoglycaemia, hypersensitivity, injection site reactions).Overdose management (glucagon/hyperglycaemia).Incompatibilities and storage conditions (refrigerator, ambient temperature, light protection, freezing, checking solution clarity).Diabetes during pregnancy and breastfeeding.Sharps disposal.</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -890,27 +890,27 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>"Date of Latest Renewal": "Not found",</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3 years; after first opening, 12 weeks</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Before first use: store in refrigerator (2°C-8°C), do not freeze, protect from light. After first opening: store below 30°C or in refrigerator, do not freeze, protect from light, and discard needles after use</t>
+          <t>Unopened: Store below 30°C or in a refrigerator (2°C - 8°C). During first use: Store below 30°C or in a refrigerator. Keep light protected. After first opening: Use within 12 weeks. Store below 30°C or in a refrigerator. Keep light protected. Do not freeze.</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>Pre-filled pen containing 1 mL, 1.5 mL, or 3 mL solution with needle packs of 9, 13, or 14 needles. Outer packaging includes cartons, multipacks, and individual pieces. Excipients: Glycerol, Metacresol, Phenol, Zinc acetate, Sodium chloride, Hydrochloric acid, Sodium hydroxide, Water for injections</t>
+          <t>Available in pre-filled pens of 1 mL (700 units), 1.5 mL (1050 units), or 3 mL (2100 units). Pens may be supplied without needles or with sets of 9, 13, or 14 NovoFine Plus needles. Multipacks include 2 pens with needles (26 or 28 needles). Contains glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, and water for injections.</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Not found (implied prescription-only due to nature, but not explicitly stated)</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S (manufacturer of active substance and batch release)</t>
+          <t>Novo Nordisk A/S (manufacturer of active substance and batch release holder). Full address: Novo Nordisk A/S, Hallas Alle 1, DK-4400 Kalundborg, Denmark for active substance; Novo Nordisk A/S, Novo Alle 1, DK-2880 Bagsvaerd Denmark for batch release.</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, Metacresol, Phenol, Zinc acetate, Sodium chloride, Hydrochloric acid, Sodium hydroxide, Water for injections</t>
+          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -947,22 +947,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Awiqli</t>
+          <t>IMCIVREE 10 mg/ml solution for injection</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>insulin icodec</t>
+          <t>setmelanotide</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>700 units/mL (1 mL pen), 1050 units/mL (1.5 mL pen), 2100 units/mL (3 mL pen)</t>
+          <t>10 mg per 1 ml solution</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection in pre-filled pen (FlexTouch)</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -972,82 +972,82 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Diabetes mellitus in adults (Type 1 and Type 2)</t>
+          <t>Treatment of obesity and control of hunger associated with: genotyped-confirmed Bardet-Biedl syndrome (BBS), loss-of-function biallelic pro-opiomelanocortin (POMC) deficiency (including PCSK1 deficiency), or biallelic leptin receptor (LEPR) deficiency in adults and children aged 2 years or above.</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Once-weekly subcutaneous administration; specific dosing instructions for initiation, dose adjustment based on patient needs and conditions (e.g., elderly, renal/hepatic impairment); combined use with other insulin or antidiabetic products; dosing adjustments during acute illness, physical activity changes, or missed doses</t>
+          <t>Dosing requires titration based on age, weight, and renal function. Starting doses are 1 mg or 0.5 mg for adults/adolescents or pediatric patients (2-&lt;6, 6-&lt;12, or ≥12 years). Dose escalation occurs over weeks based on tolerance, as specified in tables for different patient groups. For severe renal impairment, adjustments are recommended (lower initial doses). Missed dose: skip and inject next dose. Overdose: symptoms include nausea and penile erection.</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or any of the excipients</t>
+          <t>Hypersensitivity to setmelanotide or any excipient listed.</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Use only subcutaneously, no intravenous or intramuscular use; monitor blood glucose regularly; rotate injection sites; use new needles for each injection; risk of hypoglycemia and hyperglycemia; lipodystrophy or cutaneous amyloidosis; mix-ups with other insulins; use with caution in special populations (e.g., pediatric, elderly, pregnancy)</t>
+          <t>General warnings: hypersensitivity, benzyl alcohol-related risks (metabolic acidosis, gasping syndrome in children &lt;3; accumulation risk in adults/neph impairment), monitoring skin pigmentation, heart rate/BC, spontaneous penile erection, and depression. Administration: training needed, correct injection technique (abdomen, alternate site daily), use wrist/finger method, no double dose, discard faulty/blocked product. Paediatric-specific monitoring (growth/development), restrictions below age 2 years.</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Rhythm Pharmaceuticals Netherlands B.V.</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
+          <t>EU/1/21/1564/0001; EU/1/21/1564/0002</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17 May 2024</t>
+          <t>16 July 2021</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>"Date of Latest Renewal": "",</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3 years; after first opening, 12 weeks</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Before first use: store in refrigerator (2°C-8°C), do not freeze, protect from light. After first opening: store below 30°C or in refrigerator, do not freeze, protect from light, and discard needles after use</t>
+          <t>Unopened: Store in refrigerator (2°C to 8°C) or safely at ≤30°C for up to 30 days before first use. After first use: Discard after 28 days. (Local regulations may vary). After opening: Store ≤30°C. Keep in carton, protected from light. Do not freeze. Avoid heat. Do not use expired or discoloured/cloudy/cloudy solution or broken caps.</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>Pre-filled pen containing 1 mL, 1.5 mL, or 3 mL solution with needle packs of 9, 13, or 14 needles. Outer packaging includes cartons, multipacks, and individual pieces. Excipients: Glycerol, Metacresol, Phenol, Zinc acetate, Sodium chloride, Hydrochloric acid, Sodium hydroxide, Water for injections</t>
+          <t>Multidose vial (glass type I, bromobutyl stopper, aluminium cap) with bromobutyl stopper and aluminium cap. Contains 1 ml solution for injection. Packs: 1 or 10 vials. Other formats may not be marketed.</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Prescription-only and subject to additional access restrictions (refer to national variations). Partly summarized in section 4.2.</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>A10AE07</t>
+          <t>A08AA12</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S (manufacturer of active substance and batch release)</t>
+          <t>Rhythm Pharmaceuticals Netherlands B.V. (manufacturing/excision listed in section 4.3).</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, Metacresol, Phenol, Zinc acetate, Sodium chloride, Hydrochloric acid, Sodium hydroxide, Water for injections</t>
+          <t>Benzyl alcohol (10 mg per mL solution); disodium edetate; N-(carbonyl-methoxypolyethylene glycol 2000)-1,2-distearoyl-glycero-3-phosphoethanolamine sodium salt (mPEG-2000-DSPE); carmellose sodium; mannitol; phenol; water for injections; hydrochloric acid; sodium hydroxide.</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
+          <t>imcivree-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -1064,107 +1064,107 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>IMCIVREE 10 mg/ml solution for injection</t>
+          <t>Insulin aspart Sanofi</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>setmelanotide</t>
+          <t>insulin aspart</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10 mg per 1 ml solution</t>
+          <t>100 units/ml or 10,000 units/vial or 300 units/cartridge or 300 units/pre-filled pen</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>solution for injection (injection)</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous</t>
+          <t>subcutaneous or intravenous</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Treatment of obesity and control of hunger associated with: genotyped-confirmed Bardet-Biedl syndrome (BBS), loss-of-function biallelic pro-opiomelanocortin (POMC) deficiency (including PCSK1 deficiency), or biallelic leptin receptor (LEPR) deficiency in adults and children aged 2 years or above.</t>
+          <t>treatment of diabetes mellitus in adults, adolescents and children aged 1 year and above</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Dosing requires titration based on age, weight, and renal function. Starting doses are 1 mg or 0.5 mg for adults/adolescents or pediatric patients (2-&lt;6, 6-&lt;12, or ≥12 years). Dose escalation occurs over weeks based on tolerance, as specified in tables for different patient groups. For severe renal impairment, adjustments are recommended (lower initial doses). Missed dose: skip and inject next dose. Overdose: symptoms include nausea and penile erection.</t>
+          <t>Individual dosing regulated by patient needs, up to 1 unit/kg/day; adjustment needed during various conditions: exercise, illness, pregnancy, etc.; commonly administered before meals; use with intermediate-acting insulin for basal-bolus regimen or in CSII pumps</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to setmelanotide or any excipient listed.</t>
+          <t>Hypersensitivity to the active substance or any of the excipients listed in section 6.1</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>General warnings: hypersensitivity, benzyl alcohol-related risks (metabolic acidosis, gasping syndrome in children &lt;3; accumulation risk in adults/neph impairment), monitoring skin pigmentation, heart rate/BC, spontaneous penile erection, and depression. Administration: training needed, correct injection technique (abdomen, alternate site daily), use wrist/finger method, no double dose, discard faulty/blocked product. Paediatric-specific monitoring (growth/development), restrictions below age 2 years.</t>
+          <t>Continuous rotation of injection sites to avoid lipodystrophy/cutaneous amyloidosis; monitor glucose levels closely; special considerations for elderly, patients with renal/hepatic impairment, pediatric patients; traceability (record batch numbers and sites used). Only subcutaneous and IV administration, not IM or intramuscular.</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Rhythm Pharmaceuticals Netherlands B.V.</t>
+          <t>Sanofi Winthrop Industrie</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>EU/1/21/1564/0001; EU/1/21/1564/0002</t>
+          <t>EU/1/20/1447/001; EU/1/20/1447/002; EU/1/20/1447/003; EU/1/20/1447/004; EU/1/20/1447/005; EU/1/20/1447/006; EU/1/20/1447/007</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16 July 2021</t>
+          <t>June 25, 2020</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>"Date of Latest Renewal": "",</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3 years</t>
+          <t>30 months: before first use; 4 weeks: after first use</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Unopened: Store in refrigerator (2°C to 8°C) or safely at ≤30°C for up to 30 days before first use. After first use: Discard after 28 days. (Local regulations may vary). After opening: Store ≤30°C. Keep in carton, protected from light. Do not freeze. Avoid heat. Do not use expired or discoloured/cloudy/cloudy solution or broken caps.</t>
+          <t>For the vial solution: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C; keep protected from light. For the solution in cartridge: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C. For the solution in pre-filled pen: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C. All require protecting from light.</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>Multidose vial (glass type I, bromobutyl stopper, aluminium cap) with bromobutyl stopper and aluminium cap. Contains 1 ml solution for injection. Packs: 1 or 10 vials. Other formats may not be marketed.</t>
+          <t>Vial: 1 or 5 vials; each vial contains 10 ml solution; cartridge type 1 colourless, grey plunger; 5 or 10 cartridges; pre-filled pen SoloStar with 3 ml solution; pack sizes: 1, 5, or 10 pens</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Prescription-only and subject to additional access restrictions (refer to national variations). Partly summarized in section 4.2.</t>
+          <t>"Legal Category": "Not found",</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>A08AA12</t>
+          <t>A10AB05</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>Rhythm Pharmaceuticals Netherlands B.V. (manufacturing/excision listed in section 4.3).</t>
+          <t>Manufactured in: Escherichia coli using recombinant DNA technology; Marketing authorization holder listed separately from manufacturer</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>Benzyl alcohol (10 mg per mL solution); disodium edetate; N-(carbonyl-methoxypolyethylene glycol 2000)-1,2-distearoyl-glycero-3-phosphoethanolamine sodium salt (mPEG-2000-DSPE); carmellose sodium; mannitol; phenol; water for injections; hydrochloric acid; sodium hydroxide.</t>
+          <t>Phenol, Metacresol, Zinc chloride, Polysorbate 20, Sodium chloride, Hydrochloric acid (pH adjustment), Sodium hydroxide (pH adjustment), Water for injections</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>imcivree-epar-product-information_en.pdf</t>
+          <t>insulin-aspart-sanofi-epar-product-information_en.pdf.pdf</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -1181,67 +1181,67 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Awiqli</t>
+          <t>['Apixaban Accord 2.5 mg film-coated tablets', 'Apixaban Accord 5 mg film-coated tablets']</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>insulin icodec</t>
+          <t>apixaban</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Awiqli is available in 700 units/mL solution. Each pre-filled pen contains: 700 units in 1 mL solution, 1050 units in 1.5 mL solution, and 2100 units in 3 mL solution.</t>
+          <t>['2.5 mg per film-coated tablet', '5 mg per film-coated tablet']</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection in pre-filled pen (FlexTouch). Clear and colourless isotonic solution.</t>
+          <t>Film-coated tablets</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous use only</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Treatment of diabetes mellitus in adults. Includes both type 1 and type 2 diabetes.</t>
+          <t>['Prevention of venous thromboembolic events (VTE) following elective hip or knee replacement surgery', 'Prevention of stroke and systemic embolism in adult patients with non-valvular atrial fibrillation (NVAF) with one or more risk factors', 'Treatment of deep vein thrombosis (DVT) and pulmonary embolism (PE), and prevention of recurrent DVT and PE in adults']</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Awiqli is a once-weekly basal insulin administered at the same day of the week. Initiation doses vary based on patient type (e.g., insulin-naïve type 2 diabetes: 70 units/week; previously treated type 1 diabetes: calculated as total daily basal dose multiplied by 7). Dosing adjustments and missed dose management are described in detail, including specific switching protocols and patient guidance.</t>
+          <t>['Apixaban 2.5 mg twice daily for prevention of VTE after hip or knee replacement (duration 32-38 days for hip, 10-14 days for knee)', 'Apixaban 5 mg twice daily for prevention of stroke in NVAF with no need for dose adjustment in most cases, or adjusted dose in patients with age ≥80 years, body weight ≤60 kg, or serum creatinine ≥1.5 mg/dL', 'Apixaban 10 mg twice daily for the first 7 days followed by 5 mg twice daily for treatment of DVT and PE', 'Apixaban 2.5 mg twice daily for prevention of recurrent VTE', 'General guidance includes dosage adjustments for special populations like renal/hepatic impairment, elderly, etc.', 'Dosing instructions for crushing tablets, administration methods, and adherence to prescribed schedule']</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or any of the excipients listed in section 6.1.</t>
+          <t>['Hypersensitivity to apixaban or any excipient', 'Active clinically significant bleeding', 'Hepatic disease associated with coagulopathy and clinically relevant bleeding risk', 'Lesion or condition constituting a significant risk factor for major bleeding (e.g., active ulcers, recent surgeries, spinal injuries)', 'Concomitant treatment with other anticoagulants (except under specific circumstances for switching)', 'Haemodynamically unstable PE or patients requiring thrombolysis/embolectomy']</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Traceability of the administered product (name and batch number).Hypoglycaemia (risk factors, symptoms, management, prevention).Hyperglycaemia (risk factors, symptoms, management).Lipodystrophy and cutaneous amyloidosis (injection site rotation).Immunogenicity.Avoidance of medication errors (mix-ups, dosing errors).Use of combination with pioglitazone.Special populations (elderly, renal/hepatic impairment, paediatric).Effects on ability to drive and use machines.Undesirable effects (hypoglycaemia, hypersensitivity, injection site reactions).Overdose management (glucagon/hyperglycaemia).Incompatibilities and storage conditions (refrigerator, ambient temperature, light protection, freezing, checking solution clarity).Diabetes during pregnancy and breastfeeding.Sharps disposal.</t>
+          <t>['Risk of haemorrhage: Caution is needed in conditions with increased haemorrhage risk, and severe haemorrhage requires treatment discontinuation.', 'Interactions with other medicinal products: Avoid combinations that increase bleeding risk (e.g., other anticoagulants, NSAIDs, certain antibiotics), or reduce efficacy.', 'Surgery and invasive procedures: Apixaban should be stopped before procedures with bleeding risk; may be continued for catheter ablation.', 'Use in renal/hepatic impairment, elderly, and patients with low body weight requires cautious dose adjustment or caution.', 'Paediatric use: Not recommended below 18 years (dosing in ALL and SAXOPHONE studies was based on body weight).', 'Potential increased risk of bleeding when used with antiphospholipid syndrome or other specific conditions.']</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>['Accord Healthcare S.L.U.', 'LABORATORI FUNDACIÓ DAU', 'Accord Healthcare Polska Sp. z.o.o.', 'Pharmadox Healthcare Limited', 'Accord Healthcare single member S.A.']</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17 May 2024</t>
+          <t>23 July 2020</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
+          <t>Not specified in provided text</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1251,37 +1251,37 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>Unopened: Store below 30°C or in a refrigerator (2°C - 8°C). During first use: Store below 30°C or in a refrigerator. Keep light protected. After first opening: Use within 12 weeks. Store below 30°C or in a refrigerator. Keep light protected. Do not freeze.</t>
+          <t>No special storage conditions required; keep out of reach of children.</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>Available in pre-filled pens of 1 mL (700 units), 1.5 mL (1050 units), or 3 mL (2100 units). Pens may be supplied without needles or with sets of 9, 13, or 14 NovoFine Plus needles. Multipacks include 2 pens with needles (26 or 28 needles). Contains glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, and water for injections.</t>
+          <t>['PVC/PVdC - Aluminium blisters available in various quantities: 10, 14, 20, 28, 56, 60, 100, 112, 168, 200 tablets', 'HDPE bottles with child-resistant closures in quantities: 60, 100, 168, 180, 200, 1000 tablets', 'Excipients include lactose in tablet core and film coat']</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Not found (implied prescription-only due to nature, but not explicitly stated)</t>
+          <t>Not explicitly stated in provided text</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>A10AE07</t>
+          <t>B01AF02</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S (manufacturer of active substance and batch release holder). Full address: Novo Nordisk A/S, Hallas Alle 1, DK-4400 Kalundborg, Denmark for active substance; Novo Nordisk A/S, Novo Alle 1, DK-2880 Bagsvaerd Denmark for batch release.</t>
+          <t>['Accord Healthcare S.L.U.', 'LABORATORI FUNDACIÓ DAU', 'Accord Healthcare Polska Sp. z.o.o.', 'Pharmadox Healthcare Limited', 'Accord Healthcare single member S.A.']</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
+          <t>['Lactose (as listed in section 6.1 and 6.6)', 'Cellulose, microcrystalline', 'Croscarmellose sodium', 'Sodium laurilsulfate', 'Magnesium stearate', 'Hypromellose', 'Lactose monohydrate', 'Titanium dioxide (E171)', 'Triacetin', 'Iron oxide yellow (E172)']</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
+          <t>apixaban-accord-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
@@ -1293,112 +1293,112 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics (SPC).",</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Apixaban Accord 2.5 mg film-coated tablets, Apixaban Accord 5 mg film-coated tablets",</t>
+          <t>Nilemdo 180 mg film-coated tablets</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Apixaban",</t>
+          <t>bempedoic acid</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2.5 mg and 5 mg per film-coated tablet.",</t>
+          <t>180 mg per tablet</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Film-coated tablet.",</t>
+          <t>Film-coated tablet</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Oral.",</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Prevention of venous thromboembolic events (VTE) in adult patients who have undergone elective hip or knee replacement surgery. Prevention of stroke and systemic embolism in adult patients with non-valvular atrial fibrillation (NVAF). Treatment of deep vein thrombosis (DVT) and pulmonary embolism (PE), and prevention of recurrent DVT and PE.",</t>
+          <t>Hypercholesterolaemia and mixed dyslipidaemia; Cardiovascular disease (established or high risk)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>For prevention of VTE post-surgery: 2.5 mg twice daily for hip/knee surgery. For prevention of stroke/embolism in NVAF: 5 mg twice daily or reduced dose as per criteria. For treatment of VTE/DVT/PE: 10 mg twice daily for first 7 days then 5 mg twice daily. Dosing adjustments for specific conditions like renal/hepatic impairment, age, etc. administered orally with water or food. Crushed tablets can be suspended.",</t>
+          <t>One tablet once daily; May require dose adjustment in special populations (e.g., renal impairment not needed; hepatic impairment not needed for mild/moderate; no data for severe) but monitor as per sections</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to apixaban or excipients, active clinically significant bleeding, hepatic disease associated with coagulopathy and clinically relevant bleeding risk, concomitant treatment with other anticoagulants under specific circumstances only.",</t>
+          <t>Hypersensitivity to active substance or excipients; Pregnancy; Breast-feeding; Concomitant use with simvastatin &gt;40 mg daily</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Risk of hemorrhage; use with caution in conditions increasing bleeding risk, hepatic impairment, renal impairment, spinal/epidural anesthesia, surgery/invasive procedures. Dose adjustment needed for hepatic/renal impairment, age ≥75, low body weight, catheter ablation. Avoid during pregnancy. Monitor coagulation especially during switching anticoagulants.", "Discontinuation of anticoagulation requires careful consideration. Patients with limited chewing ability or postoperative patients may require alternative administration.",</t>
+          <t>Myopathy risk with statins; Hyperuricaemia/gout risk; Elevated liver enzymes; Renal impairment; Contraception measures for women of child-bearing potential; Use with caution in elderly, hepatic impairment, and special populations; Discontinue if CPK &gt;10× ULN</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>Accord Healthcare S.L.U.",</t>
+          <t>Daiichi Sankyo Europe GmbH; Daiichi Sankyo Europe GmbH (various addresses across countries)</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/20/1425/001-011</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23 July 2020",</t>
+          <t>01 April 2020</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>Not specified in text.",</t>
+          <t>Not found (not explicitly stated in the text)</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3 years from batch release.",</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>None specified beyond standard conditions; keep out of reach of children.",</t>
+          <t>No special storage required</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>Available in PVC/PVDC-Aluminium blister packs (10, 14, 20, 28, 56, 60, 100, 112, 168, 200 tablets), perforated unit dose blisters (10x1, 20x1, 28x1, 56x1, 60x1, 100x1, 168x1), HDPE bottles (60, 100, 168, 180, 200, 1000 tablets). Excipients include lactose.",</t>
+          <t>Polyvinyl chloride (PVC)/aluminum blisters; Various pack sizes including 10, 14, 28, 30, 84, 90, 98, 100 tablets; Polyvinyl chloride (PVC)/aluminum perforated unit dose blisters with 10×1, 50×1 or 100×1 tablets; Tablets are white to off-white, oval, debossed with "180" on one side and "ESP" on the other; Dimensions: 13.97 mm × 6.60 mm × 4.80 mm</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Not explicitly stated in provided text.",</t>
+          <t>Prescription only (inferred from the requirement for a medical prescription mentioned)</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>B01AF02",</t>
+          <t>C10AX15</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>Accord Healthcare S.L.U., LABORATORI FUNDACIÓ DAU, Accord Healthcare Polska Sp. z.o.o., Pharmadox Healthcare Limited, Accord Healthcare single member S.A.",</t>
+          <t>Daiichi Sankyo Europe GmbH (address: Luitpoldstrasse 1, 85276 Pfaffenhofen, Germany); Excipients listed include lactose monohydrate, microcrystalline cellulose, sodium starch glycolate, hydroxypropyl cellulose, magnesium stearate, silica; Film-coating: Partially hydrolyzed poly(vinyl alcohol), talc, titanium dioxide, macrogol/PEG</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>Lactose, cellulose microcrystalline, croscarmellose sodium, sodium laurilsulfate, magnesium stearate, lactose monohydrate, hypromellose, titanium dioxide, triacetin, iron oxide yellow.</t>
+          <t>Lactose monohydrate; Microcrystalline cellulose (E460); Sodium starch glycolate (Type A grade); Hydroxypropyl cellulose (E463); Magnesium stearate (E470b); Silica, colloidal anhydrous (E551); Partially hydrolyzed poly(vinyl alcohol) (E1203); Talc (E553b); Titanium dioxide (E171); Macrogol/PEG (E1521)</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>apixaban-accord-epar-product-information_en.pdf</t>
+          <t>nilemdo-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1766,22 +1766,22 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Nilemdo 180 mg film-coated tablets</t>
+          <t>Opsumit</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>bempedoic acid</t>
+          <t>macitentan, 1.5 mg (each film-coated tablet of Opsumit 2.5 mg dispersible tablets contains 2.5 mg macitentan or in section 11.4.2 macitentan 3 mg</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180 mg per tablet</t>
+          <t>10 mg, 2.5 mg film-coated and dispersible tablets, macitentan 3mg mentioned in section 11.4.2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Film-coated tablet</t>
+          <t>Film-coated tablets,Dispersible tablets</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1791,82 +1791,82 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Hypercholesterolaemia and mixed dyslipidaemia; Cardiovascular disease (established or high risk)</t>
+          <t>Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>One tablet once daily; May require dose adjustment in special populations (e.g., renal impairment not needed; hepatic impairment not needed for mild/moderate; no data for severe) but monitor as per sections</t>
+          <t>Adults and pediatric patients (≥40 kg): 10 mg once daily; Pediatric patients (&lt;40 kg): 2.5 mg tablet according to body weight, also 7.5 mg, 10 mg strengths available</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to active substance or excipients; Pregnancy; Breast-feeding; Concomitant use with simvastatin &gt;40 mg daily</t>
+          <t>Hypersensitivity macitentan,soya, Placebo, Pregnancy, Hypertension, Breast feeding, Severe hepatic impairment</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Myopathy risk with statins; Hyperuricaemia/gout risk; Elevated liver enzymes; Renal impairment; Contraception measures for women of child-bearing potential; Use with caution in elderly, hepatic impairment, and special populations; Discontinue if CPK &gt;10× ULN</t>
+          <t>Monitor liver function, Hypotension risk, Hemoglobin concentration reduction, Use in patients with pulmonary veno-occlusive disease, Pregnancy prevention (contraception), Use in children below 2 years old</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>Daiichi Sankyo Europe GmbH; Daiichi Sankyo Europe GmbH (various addresses across countries)</t>
+          <t>Janssen -Cilag International NV, Janssen Pharmaceutica NV</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>EU/1/20/1425/001-011</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>01 April 2020</t>
+          <t>20 December 2013</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>Not found (not explicitly stated in the text)</t>
+          <t>23 August 2018</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3 years</t>
+          <t>5 years for film-coated tablets, 2 years for dispersible tablets</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>No special storage required</t>
+          <t>Keep dry, Avoid above 30°C, Protect from moisture</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>Polyvinyl chloride (PVC)/aluminum blisters; Various pack sizes including 10, 14, 28, 30, 84, 90, 98, 100 tablets; Polyvinyl chloride (PVC)/aluminum perforated unit dose blisters with 10×1, 50×1 or 100×1 tablets; Tablets are white to off-white, oval, debossed with "180" on one side and "ESP" on the other; Dimensions: 13.97 mm × 6.60 mm × 4.80 mm</t>
+          <t>Blister packs, Unit dose blisters, Dispersible tablets with patient leaflet</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Prescription only (inferred from the requirement for a medical prescription mentioned)</t>
+          <t>Prescription only</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>C10AX15</t>
+          <t>C02KX04</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>Daiichi Sankyo Europe GmbH (address: Luitpoldstrasse 1, 85276 Pfaffenhofen, Germany); Excipients listed include lactose monohydrate, microcrystalline cellulose, sodium starch glycolate, hydroxypropyl cellulose, magnesium stearate, silica; Film-coating: Partially hydrolyzed poly(vinyl alcohol), talc, titanium dioxide, macrogol/PEG</t>
+          <t>Janssen Pharmaceutica NV, Belgium</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>Lactose monohydrate; Microcrystalline cellulose (E460); Sodium starch glycolate (Type A grade); Hydroxypropyl cellulose (E463); Magnesium stearate (E470b); Silica, colloidal anhydrous (E551); Partially hydrolyzed poly(vinyl alcohol) (E1203); Talc (E553b); Titanium dioxide (E171); Macrogol/PEG (E1521)</t>
+          <t>Lactose and lactose monohydrate, soyabean lecithin (E322), isomalt, soyabean lecithin</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>nilemdo-epar-product-information_en.pdf</t>
+          <t>opsumit-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
@@ -1878,112 +1878,112 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics</t>
+          <t>Summary of Product Characteristics (SmPC)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Opsumit</t>
+          <t>Omnitrope; Omnitrope 1.3 mg/ml powder and solvent for solution for injection; Omnitrope 5 mg/ml powder and solvent for solution for injection; Omnitrope 5 mg/1.5 ml solution for injection in cartridge; Omnitrope 10 mg/1.5 ml solution for injection in cartridge; Omnitrope 5 mg/1.5 ml solution for injection; Omnitrope 10 mg/1.5 ml solution for injection; Omnitrope 15 mg/1.5 ml solution for injection in cartridge</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>macitentan, 1.5 mg (each film-coated tablet of Opsumit 2.5 mg dispersible tablets contains 2.5 mg macitentan or in section 11.4.2 macitentan 3 mg</t>
+          <t>somatropin</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10 mg, 2.5 mg film-coated and dispersible tablets, macitentan 3mg mentioned in section 11.4.2</t>
+          <t>1.3 mg (corresponding to 4 IU) per ml; 5 mg (corresponding to 15 IU) per ml; 5 mg/ml solution; 3.3 mg/ml solution; 10 mg/ml solution; 6.7 mg/ml solution; 10 mg/ml solution; 15 mg/ml solution; 5 mg (corresponding to 15 IU) in 1 ml for 1.3 mg/ml product before reconstitution; 5 mg (corresponding to 15 IU) in 1.5 ml for 5 mg/ml product after reconstitution; 5 mg (corresponding to 15 IU) in 1.5 ml for 5 mg/ml solution; 10 mg (corresponding to 30 IU) in 1.5 ml for 10 mg/ml solution; 15 mg (corresponding to 45 IU) in 1.5 ml for 15 mg/ml solution; 0.025–0.035 mg/kg; 0.7–1.0 mg/m²; 0.045–0.050 mg/kg; 1.4 mg/m²; 0.035 mg/kg; 1.0 mg/m²; 0.035 mg/kg (for SGA children); 1.0 mg/m² (for SGA children)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Film-coated tablets,Dispersible tablets</t>
+          <t>powder and solvent for solution for injection; solution for injection in a cartridge; 1 ml powder and 1 ml solvent for the 1.3 mg/ml product; white powder; clear and colourless solution; 1.3 mg powder per vial; 1 ml solvent per vial; white powder for the 1.3 mg/ml product; clear and colourless solution for the 1.3 mg/ml solvent; powder and solvent for solution for injection for the 5 mg/ml product; solution only, mixing required for the 5 mg/ml product; solution for injection for the 5 mg/1.5 ml product; solution for injection; clear and colourless solution for most formulations</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Oral</t>
+          <t>subcutaneous; subcutaneous injection; SC; subcutaneous use after reconstitution; powder and solvent for solution for injection requiring reconstitution and then subcutaneous administration; solution for injection administered subcutaneously</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension (PAH)</t>
+          <t>Growth hormone deficiency (GHD); Turner syndrome; Chronic renal insufficiency; Short children/adolescents born small for gestational age (SGA); Prader-Willi syndrome (PWS); Replacement therapy in adults with pronounced growth hormone deficiency (adult-onset or childhood-onset); Cystic fibrosis; Wernicke-Korsakoff syndrome; Wegener's granulomatosis; other forms of renal replacement; certain ischemic diseases; Takayasu arteritis; renal osteodystrophy; bicytopenia; chemotherapy-induced neutropenia; acceleration of linear growth in children; For children: GHD, Turner syndrome, chronic renal insufficiency, SGA, PWS; For adults: pronounced GHD</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Adults and pediatric patients (≥40 kg): 10 mg once daily; Pediatric patients (&lt;40 kg): 2.5 mg tablet according to body weight, also 7.5 mg, 10 mg strengths available</t>
+          <t>Individually determined; Based on body weight and/or body surface area; Children with GHD: 0.025–0.035 mg/kg/day or 0.7–1.0 mg/m²/day; Prader-Willi syndrome: 0.035 mg/kg/day or 1.0 mg/m²/day maximum 2.7 mg/day; Turner syndrome: 0.045–0.050 mg/kg/day or 1.4 mg/m²/day; Chronic renal insufficiency: 0.045–0.050 mg/kg/day or 1.4 mg/m²/day; SGA: 0.035 mg/kg/day or 1.0 Specifically mg/m²/day; Adults: 0.15–0.3 mg/day initially; pediatric populations range 0.1–1.0 mg/day; Initial restart dose 0.2–0.5 mg/day after childhood GHD; Dose adjustments based on IGF-1 levels and response; Guidance to use once-daily dosing; Reconstitution instructions vary based on concentration</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity macitentan,soya, Placebo, Pregnancy, Hypertension, Breast feeding, Severe hepatic impairment</t>
+          <t>Hypersensitivity to somatropin or excipients; Active tumors (tumors must be inactive and anti-tumor therapy completed prior); Growth promotion in children with closed epiphyses; Serious illness (critically ill patients post-surgery or trauma); Acute critical illness or postoperative conditions involving high mortality risk like open heart surgery or trauma; Known hypersensitivity to excipients including ingredients pertinent to specific formulations</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Monitor liver function, Hypotension risk, Hemoglobin concentration reduction, Use in patients with pulmonary veno-occlusive disease, Pregnancy prevention (contraception), Use in children below 2 years old</t>
+          <t>Traceability requirements; Use with caution in elderly (lower maximum dose); Risk of benign intracranial hypertension; Bone development monitoring during transition; Avoid use in skin care or lip care routines; Added caution regarding benzyl alcohol after clinical observation of pancreatitis or metabolic acidosis; Instruction evaluation for Prader-Willi syndrome patients; Scoliosis monitoring; Rapid PD activation; Benign intracranial hypertension warning; Leukaemia risk assessment; Antibody formation possibility; Avoid exceeding recommended daily dose; Storage conditions post-extraction; Use only cleared clear solution; Type of administration (must be individualized and monitored by healthcare professionals)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Janssen -Cilag International NV, Janssen Pharmaceutica NV</t>
+          <t>Sandoz GmbH; Sandoz AG; Sandoz</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/06/332/004; EU/1/06/332/005; EU/1/06/332/006; EU/1/06/332/007; EU/1/06/332/008; EU/1/06/332/009; EU/1/06/332/010; EU/1/06/332/011; EU/1/06/332/012; EU/1/06/332/013; EU/1/06/332/014; EU/1/06/332/015; EU/1/06/332/016; EU/1/06/332/017; EU/1/06/332/018</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20 December 2013</t>
+          <t>2006-04-12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23 August 2018</t>
+          <t>2011-02-28</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5 years for film-coated tablets, 2 years for dispersible tablets</t>
+          <t>24-hour post-reconstitution stability (2°C–8°C); Standard shelf life up to 3 years depending on formulation; Refers primarily to the 1.3 mg/ml powder product before reconstitution</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>Keep dry, Avoid above 30°C, Protect from moisture</t>
+          <t>Refrigerate (2°C–8°C); Do not freeze; Store in original package (child-resistant, presumably); Shelf life after first use: up to 24 hours refrigerated</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>Blister packs, Unit dose blisters, Dispersible tablets with patient leaflet</t>
+          <t>Various pack sizes mentioned include: Pack size of 1; 5 vials of powder; 5 cartridges of solution; Unspecified appropriate pack sizes for injection devices; Needles supplied but not packaged directly with the powder solution specifically; Cartridges containing benzyl alcohol; Information on pen and device usage; Crude division into pen-compatible cartridges</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Prescription only</t>
+          <t>Not explicitly stated, but biological medicinal product</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>C02KX04</t>
+          <t>H01AC01</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>Janssen Pharmaceutica NV, Belgium</t>
+          <t>Sandoz AG; Sandoz GmbH (address in Kundl); Novartis Pharmaceutical Manufacturing GmbH; Manufacturer responsible for batch release: Sandoz GmbH</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>Lactose and lactose monohydrate, soyabean lecithin (E322), isomalt, soyabean lecithin</t>
+          <t>glycine; disodium hydrogen phosphate heptahydrate; sodium dihydrogen phosphate dihydrate; water for injections; benzyl alcohol; mannitol; poloxamer; poloxamer 188; phenol; disodium hydrogen phosphate dihydrate (repeated mention)</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>opsumit-epar-product-information_en.pdf</t>
+          <t>omnitrope-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
@@ -2112,112 +2112,112 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics</t>
+          <t>Summary of Product Characteristics (SPC/SmPC)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Insulin aspart Sanofi</t>
+          <t>Prasugrel Viatris 5 mg film-coated tablets; Prasugrel Viatris 10 mg film-coated tablets</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>insulin aspart</t>
+          <t>prasugrel</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>100 units/ml or 10,000 units/vial or 300 units/cartridge or 300 units/pre-filled pen</t>
+          <t>5 mg tablet (equivalent to 5 mg prasugrel) or 10 mg tablet (equivalent to 10 mg prasugrel). Special strengths: 5 mg maintenance dose for patients ≥75 years or &lt;60 kg</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>solution for injection (injection)</t>
+          <t>Film-coated tablets for oral use. Prasugrel Viatris 5 mg tablets are yellow, capsule-shaped, biconvex. Prasugrel Viatris 10 mg tablets are beige, capsule-shaped, biconvex</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>subcutaneous or intravenous</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>treatment of diabetes mellitus in adults, adolescents and children aged 1 year and above</t>
+          <t>Prevention of atherothrombotic events (myocardial infarction, stroke, death) in adult patients with acute coronary syndrome (unstable angina, NSTEMI, STEMI) undergoing primary or delayed PCI, usually coadministered with acetylsalicylic acid (ASA)</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Individual dosing regulated by patient needs, up to 1 unit/kg/day; adjustment needed during various conditions: exercise, illness, pregnancy, etc.; commonly administered before meals; use with intermediate-acting insulin for basal-bolus regimen or in CSII pumps</t>
+          <t>Adults: 60 mg loading dose followed by 10 mg daily for general population. Exceptions: ≥75 years -&gt; reduced maintenance dose of 5 mg; &lt;60 kg -&gt; reduced maintenance dose of 5 mg; Renal/hepatic impairment -&gt; no dose adjustment needed but caution advised. Paediatric population: not indicated (&lt;18 years, except specified study)</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or any of the excipients listed in section 6.1</t>
+          <t>Hypersensitivity to active substance or excipients, active pathological bleeding, history of stroke or TIA, severe hepatic impairment (Child Pugh Class C)</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>Continuous rotation of injection sites to avoid lipodystrophy/cutaneous amyloidosis; monitor glucose levels closely; special considerations for elderly, patients with renal/hepatic impairment, pediatric patients; traceability (record batch numbers and sites used). Only subcutaneous and IV administration, not IM or intramuscular.</t>
+          <t>Risk of bleeding (gastrointestinal tract predominant); caution in patients ≥75 years, &lt;60 kg, renal/hepatic impairment; reduce dose in specified cases; surgical patients may need temporary discontinuation ≥7 days before procedure; hypersensitivity reactions including angioedema; risk of bleeding if loading dose administered too early in NSTEMI (average 4+ hours before PCI increases bleeding risk); interaction with warfarin, NSAIDs, morphine, CYP3A inhibitors/inducers may be clinically significant</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Sanofi Winthrop Industrie</t>
+          <t>Viatris Limited</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>EU/1/20/1447/001; EU/1/20/1447/002; EU/1/20/1447/003; EU/1/20/1447/004; EU/1/20/1447/005; EU/1/20/1447/006; EU/1/20/1447/007</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>June 25, 2020</t>
+          <t>16 May 2018</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>20 March 2023</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>30 months: before first use; 4 weeks: after first use</t>
+          <t>2 years</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>For the vial solution: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C; keep protected from light. For the solution in cartridge: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C. For the solution in pre-filled pen: before first use, store in refrigerator (2°C - 8°C); after first use, store below 30°C. All require protecting from light.</t>
+          <t>5 mg formulations: Do not store above 30°C. Protect from moisture (original package). 10 mg formulations (bottles): Do not store above 25°C, protect from moisture. Blister packs: Do not store above 30°C, protect from moisture. All formulations should be protected from light if specified by the particular packaging.</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>Vial: 1 or 5 vials; each vial contains 10 ml solution; cartridge type 1 colourless, grey plunger; 5 or 10 cartridges; pre-filled pen SoloStar with 3 ml solution; pack sizes: 1, 5, or 10 pens</t>
+          <t>Available in plastic bottles containing desiccant and 28/30 tablets, and/or foil-sealed blisters containing various combinations of 28, 30, 84, 90, 98 tablets, with specific combinations for 5mg and 10mg forms. Cartons contain 1 bottle or blister pack.</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>"Legal Category": "Not found",</t>
+          <t>Not explicitly stated, but likely Prescription Only Medication (POM) given the nature of the product and context</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>A10AB05</t>
+          <t>B01AC22</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>Manufactured in: Escherichia coli using recombinant DNA technology; Marketing authorization holder listed separately from manufacturer</t>
+          <t>Gerard Laboratories / Mylan Dublin, Ireland; Mylan Hungary Kft., Hungary; McDermott Laboratories / Mylan, Ireland</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>Phenol, Metacresol, Zinc chloride, Polysorbate 20, Sodium chloride, Hydrochloric acid (pH adjustment), Sodium hydroxide (pH adjustment), Water for injections</t>
+          <t>Common excipients: microcrystalline cellulose, mannitol, crospovidone, silica colloidal anhydrous, magnesium stearate, polyvinyl alcohol, talc, titanium dioxide (E171), glyceryl monocaprylocaprate, sodium lauryl sulfate. For 5mg only: iron oxide yellow (E172); for 10mg additionally: iron  oxide red (E172), sunset yellow FCF aluminium lake (E110)</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>insulin-aspart-sanofi-epar-product-information_en.pdf.pdf</t>
+          <t>prasugrel-viatris-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
@@ -2234,22 +2234,22 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Saxenda</t>
+          <t>Ryzodeg 100 units/mL FlexTouch solution for injection in pre-filled pen; Ryzodeg 100 units/mL FlexPen solution for injection in pre-filled pen; Ryzodeg 100 units/mL Penfill solution for injection in cartridge</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Liraglutide</t>
+          <t>insulin degludec / insulin aspart* in a ratio of 70/30 (equivalent to 2.56 mg insulin degludec and 1.05 mg insulin aspart).</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6 mg/ml</t>
+          <t>100 units/mL, with one pre-filled pen/cartridge containing 300 units of insulin degludec/insulin aspart</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection</t>
+          <t>Solution for injection, pre-filled pen or cartridge</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -2259,82 +2259,82 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Weight management in adults, adolescents and children for Prader-Willi Syndrome with obesity (based on etiology and weight ≥60 kg)</t>
+          <t>Treatment of diabetes mellitus in adults, adolescents and children from the age of 2 years</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Adults: starting at 0.6 mg once daily, escalated in 0.6 mg increments weekly to 3.0 mg daily. Adolescents: similar to adults.</t>
+          <t>Dosed individually based on patient needs; Use with main meal(s); Regular blood glucose monitoring; Dose adjustments based on fasting plasma glucose; Adjustments for increased physical activity, diet change, or concomitant illness; Special considerations for elderly, renal/hepatic impairment, and pediatric populations (especially 2-5 years old)</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to liraglutide or any excipient, severe renal impairment, severe hepatic impairment, heart failure NYHA class IV</t>
+          <t>Hypersensitivity to the active substances or any of the excipients listed in section 6.1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>Aspiration during anesthesia, aspiration risk, use subcutaneously, risk of pancreatitis, cholelithiasis, hypoglycemia risk in diabetics, endocrine tumor, use in pregnancy/breastfeeding, fluid loss/dehydration, thyroid disorders, heart rate increase, late-onset dumping syndrome, dysphagia, allergic reactions, injection site amyloidosis.</t>
+          <t>Avoid intravenous or intramuscular administration; Risk of hypoglycaemia (especially in children 2-5 years, switch from other basal/premix insulin without adjustment, frequent/absent awareness of hypoglycaemia); Can cause hyperglycaemia; Use only clear, colourless solution; No reuse of needles; Hypersensitivity reactions; Lipodystrophy/cutaneous amyloidosis at injection sites; Avoid mixing with other medicinal products; Proper disposal of waste; Use only for single patient; Not recommended during breastfeeding under certain conditions</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Novo Nordisk A/S; Novo Nordisk Production SAS</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>EU/1/15/992/001-003</t>
+          <t>EU/1/12/806/001, EU/1/12/806/002, EU/1/12/806/003, EU/1/12/806/004, EU/1/12/806/005, EU/1/12/806/007, EU/1/12/806/008, EU/1/12/806/009</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23 March 2015</t>
+          <t>21 January 2013</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>09 December 2019</t>
+          <t>21 September 2017</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>Original packaging: 30 months. After first use: 1 month</t>
+          <t>30 months (non-refrigerated after first opening, up to maximum 4 weeks; properly stored)</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>Store below 8°C in refrigerator (2-8°C). Do not freeze. After first use: store below 30°C or in refrigerator. Protect from light. Keep container cap on after use.</t>
+          <t>Before first use: Refrigerate at 2°C–8°C; Do not freeze; Protect from light. After first opening (if carried as spare): 2°C–8°C or not above 30°C, depending on formulation or refrigerate, protect from light; Do not refrigerate for specific formulations; Store in outer carton to protect from light</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>Single or multidose patient pen (pre-filled multidose pen, 3 ml containing doses of 0.6 mg, 1.2 mg, 1.8 mg, 2.4 mg, or 3.0 mg).</t>
+          <t>Ryzodeg 100 units/mL FlexTouch/FlexPen: 3 mL solution in cartridge made of type 1 glass, halobutyl plunger; Pens made of polypropylene; FlexTouch: Pack sizes 1 pen (with/without needles), 5 pens; FlexPen: 5 pens; Ryzodeg Penfill: 3 mL solution in cartridge made of type 1 glass, halobutyl plunger; Pack sizes 5 or 10 cartridges; Disposable with Novo Nordisk insulin delivery systems/syringes/n needles</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Prescription only medication</t>
+          <t>Prescription only</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>A10BA02</t>
+          <t>A10AD06</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>Liraglutide: Novo Nordisk A/S (Denmark). Packaging: Pens made from glass, polypropylene, polyacetal, polycarbonate, acrylonitrile butadiene styrene.</t>
+          <t>Novo Nordisk A/S (DK), Novo Nordisk Production SAS (FR)</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>Disodium phosphate dihydrate, propylene glycol, phenol, hydrochloric acid, sodium hydroxide, water for injections</t>
+          <t>Glycerol, metacresol, phenol, sodium chloride, zinc acetate, hydrochloric acid (for pH adjustment), sodium hydroxide (for pH adjustment), water for injections</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>saxenda-epar-product-information_en.pdf</t>
+          <t>ryzodeg-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -2346,112 +2346,112 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics</t>
+          <t>Summary of Product Characteristics (SmPC)",</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Ryzodeg 100 units/mL FlexTouch solution for injection in pre-filled pen; Ryzodeg 100 units/mL FlexPen solution for injection in pre-filled pen; Ryzodeg 100 units/mL Penfill solution for injection in cartridge</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>insulin degludec / insulin aspart* in a ratio of 70/30 (equivalent to 2.56 mg insulin degludec and 1.05 mg insulin aspart).</t>
+          <t>sotatercept",</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>100 units/mL, with one pre-filled pen/cartridge containing 300 units of insulin degludec/insulin aspart</t>
+          <t>[</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection, pre-filled pen or cartridge</t>
+          <t>Powder and solvent for solution for injection (powder for injection). Powder is white to off-white, solvent is clear colourless water for injections",</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous use only</t>
+          <t>Subcutaneous (SC)",</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Treatment of diabetes mellitus in adults, adolescents and children from the age of 2 years</t>
+          <t>Treatment of pulmonary arterial hypertension (PAH) in adult patients with WHO Functional Class II to III",</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Dosed individually based on patient needs; Use with main meal(s); Regular blood glucose monitoring; Dose adjustments based on fasting plasma glucose; Adjustments for increased physical activity, diet change, or concomitant illness; Special considerations for elderly, renal/hepatic impairment, and pediatric populations (especially 2-5 years old)</t>
+          <t>{</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substances or any of the excipients listed in section 6.1</t>
+          <t>Hypersensitivity to sotatercept or any excipient, consistently low platelet count &lt; 50 x 10^9/L prior to initiation",</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>Avoid intravenous or intramuscular administration; Risk of hypoglycaemia (especially in children 2-5 years, switch from other basal/premix insulin without adjustment, frequent/absent awareness of hypoglycaemia); Can cause hyperglycaemia; Use only clear, colourless solution; No reuse of needles; Hypersensitivity reactions; Lipodystrophy/cutaneous amyloidosis at injection sites; Avoid mixing with other medicinal products; Proper disposal of waste; Use only for single patient; Not recommended during breastfeeding under certain conditions</t>
+          <t>Traceability (record batch number), Erythrocytosis (monitored, may require dose adjustment), Thrombocytopenia (monitored, more common with other therapies), Serious bleeding (worsens in elderly or on certain meds, C 12%"),</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S; Novo Nordisk Production SAS</t>
+          <t>Merc k Sharp &amp; Dohme B.V.",</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>EU/1/12/806/001, EU/1/12/806/002, EU/1/12/806/003, EU/1/12/806/004, EU/1/12/806/005, EU/1/12/806/007, EU/1/12/806/008, EU/1/12/806/009</t>
+          <t>EU/1/19/1419/001; EU/1/19/1419/002; EU/1/19/1419/003; EU/1/19/1419/004</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21 January 2013</t>
+          <t>22 August 2024",</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21 September 2017</t>
+          <t>Not found in text",</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30 months (non-refrigerated after first opening, up to maximum 4 weeks; properly stored)</t>
+          <t>{"Unopened vial": "3 years", "After reconstitution": "No longer than 4 hours"},</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>Before first use: Refrigerate at 2°C–8°C; Do not freeze; Protect from light. After first opening (if carried as spare): 2°C–8°C or not above 30°C, depending on formulation or refrigerate, protect from light; Do not refrigerate for specific formulations; Store in outer carton to protect from light</t>
+          <t>Store in refrigerator (2°C–8°C), do not freeze. Store in original package to protect from light. After reconstitution, use immediately or no longer than 4 hours.",</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>Ryzodeg 100 units/mL FlexTouch/FlexPen: 3 mL solution in cartridge made of type 1 glass, halobutyl plunger; Pens made of polypropylene; FlexTouch: Pack sizes 1 pen (with/without needles), 5 pens; FlexPen: 5 pens; Ryzodeg Penfill: 3 mL solution in cartridge made of type 1 glass, halobutyl plunger; Pack sizes 5 or 10 cartridges; Disposable with Novo Nordisk insulin delivery systems/syringes/n needles</t>
+          <t>Vials containing 45 mg or 60 mg sotatercept powder, prefilled syringes with solvent (1.0 mL or 1.3 mL), dosing syringe, alcohol wipes, needle and vial adaptor. Pack sizes include combinations.",</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Prescription only</t>
+          <t>Not found (No specific legal category mentioned)",</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>A10AD06</t>
+          <t>C02KX06",</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S (DK), Novo Nordisk Production SAS (FR)</t>
+          <t>{</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, metacresol, phenol, sodium chloride, zinc acetate, hydrochloric acid (for pH adjustment), sodium hydroxide (for pH adjustment), water for injections</t>
+          <t>[</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>ryzodeg-epar-product-information_en.pdf</t>
+          <t>winrevair-epar-product-information_en.pdf.pdf</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
@@ -2463,112 +2463,112 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Saxenda</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Liraglutide</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>6 mg/ml</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Solution for injection</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Subcutaneous use only</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Weight management in adults, adolescents and children for Prader-Willi Syndrome with obesity (based on etiology and weight ≥60 kg)</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Adults: starting at 0.6 mg once daily, escalated in 0.6 mg increments weekly to 3.0 mg daily. Adolescents: similar to adults.</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to liraglutide or any excipient, severe renal impairment, severe hepatic impairment, heart failure NYHA class IV</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Aspiration during anesthesia, aspiration risk, use subcutaneously, risk of pancreatitis, cholelithiasis, hypoglycemia risk in diabetics, endocrine tumor, use in pregnancy/breastfeeding, fluid loss/dehydration, thyroid disorders, heart rate increase, late-onset dumping syndrome, dysphagia, allergic reactions, injection site amyloidosis.</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Novo Nordisk A/S</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/15/992/001-003</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>23 March 2015</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>09 December 2019</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Original packaging: 30 months. After first use: 1 month</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Store below 8°C in refrigerator (2-8°C). Do not freeze. After first use: store below 30°C or in refrigerator. Protect from light. Keep container cap on after use.</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Single or multidose patient pen (pre-filled multidose pen, 3 ml containing doses of 0.6 mg, 1.2 mg, 1.8 mg, 2.4 mg, or 3.0 mg).</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Prescription only medication</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>A10BA02</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Liraglutide: Novo Nordisk A/S (Denmark). Packaging: Pens made from glass, polypropylene, polyacetal, polycarbonate, acrylonitrile butadiene styrene.</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Disodium phosphate dihydrate, propylene glycol, phenol, hydrochloric acid, sodium hydroxide, water for injections</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>saxenda-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
@@ -2580,112 +2580,112 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Trepulmix 1 mg/ml solution for infusion; Trepulmix 2.5 mg/ml solution for infusion; Trepulmix 5 mg/ml solution for infusion; Trepulmix 10 mg/ml solution for infusion</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>treprostinil (as sodium salt)</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>1 mg/ml; 2.5 mg/ml; 5 mg/ml; 10 mg/ml</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Solution for infusion</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Subcutaneous</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Treatment of adult patients with inoperable chronic thromboembolic pulmonary hypertension (CTEPH) or persistent or recurrent CTEPH after surgical treatment (severity classified WHO Functional Class III or IV)</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Recommended initial infusion rate: 1.25 ng/kg/min; dose adjustments: increments of up to 1.25 ng/kg/min per week for the first four weeks, followed by up to 2.5 ng/kg/min per week; administration method: continuous subcutaneous infusion via a portable pump; infusion rate calculation formula provided; treatment must be initiated and monitored by experienced clinicians</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to active substance or excipients; pulmonary veno-occlusive disease; severe hepatic impairment (Child-Pugh Class C); severe decompensated left heart failure; active gastrointestinal ulcer; intracranial haemorrhage; gastrointestinal injury; other gastrointestinal bleeding; congenital or acquired valvular defects with clinically relevant myocardial dysfunction not related to pulmonary hypertension; severe coronary heart disease or unstable angina; myocardial infarction within the last six months; severe arrhythmias; cerebrovascular events within the last three months (e.g., TIA, stroke); co-administration with other prostanoids</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Prolonged continuous infusion required, patient must accept subcutaneous catheter and infusion device; potent vasodilator, monitor blood pressure and heart rate during dose changes; sudden withdrawal may cause rebound pulmonary hypertension; caution in hepatic/renal impairment; interaction with oral CYP2C8 inhibitors/inductors may require dose adjustment; interaction with bosentan or sildenafil no pharmacokinetic interaction observed; potential increase in bleeding risk with anticoagulants, NSAIDs; sodium content consideration for patients on low-sodium diet; fatal outcome reported in dog study at high infusion rates; contraindicated in pregnancy unless essential; use in children/adolescents not recommended; caution in elderly due to higher risk of hepatic/renal impairment; monitor for systemic hypotension during therapy initiation/dose adjustments</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SciPharm Sàrl; AOP Orphan Pharmaceuticals GmbH</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/19/1419/001; EU/1/19/1419/002; EU/1/19/1419/003; EU/1/19/1419/004</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>03 April 2020</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>13 December 2024</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Unopened vial: 3 years; After first opening: 30 days; During use with continuous subcutaneous infusion: 72 hours at 37°C</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>No special storage conditions required</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Each formulation supplied in a 10 ml type I clear glass vial with specific rubber stopper and cap color coding (yellow for 1 mg/ml, blue for 2.5 mg/ml, green for 5 mg/ml, red for 10 mg/ml); Each carton contains one vial; Not all pack sizes marketed</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Prescription only (Restricted medical prescription as per Section 11)</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>B01AC21</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>AOP Orphan Pharmaceuticals GmbH</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Sodium citrate; Hydrochloric acid; Metacresol; Sodium hydroxide; Sodium chloride; Water for injections</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>trepulmix-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
@@ -2697,47 +2697,47 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Vildagliptin/Metformin hydrochloride Accord 50mg/850mg film-coated tablets, Vildagliptin/Metformin hydrochloride Accord 50mg/1000mg film-coated tablets</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Vildagliptin, Metformin hydrochloride</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>50 mg vildagliptin/850 mg metformin hydrochloride (corresponding to 660 mg metformin) per tablet for 50mg/850mg strength; 50 mg vildagliptin/1000 mg metformin hydrochloride (corresponding to 780 mg metformin) per tablet for 50mg/1000mg strength; Maximum recommended daily dose of vildagliptin: 100 mg; Maximum daily dose of metformin: 3000 mg for GFR ≥60 ml/min reduced to 2000 mg, 1000 mg and contraindicated for GFR &lt;30 ml/min</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Film-coated tablets 50mg/850mg: Yellow, oval shaped, biconvex, 20.15 x 8.00 mm debossed 'GG2'; 50mg/1000mg: Dark yellow, oval shaped, biconvex, 21.11 x 8.38 mm debossed 'GG3'</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Improvement of glycaemic control in adults with type 2 diabetes mellitus insufficiently controlled by diet/exercise alone or in combination with other antidiabetic therapies including insulin or sulphonylureas.</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Adults with normal renal function (GFR ≥90 ml/min): Initiate 50mg/850mg or 50mg/1000mg twice daily. Adjust doses based on prior treatment; Elderly ≥65 years: Monitor renal function; Renal impairment: Dose adjustment based on GFR levels; Surgical patients: Discontinue 48h prior to procedure with renal function reassessment; Dose as monotherapy/switching/regimens based on prior metformin/vildagliptin use</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to active substances or excipients, acute metabolic acidosis (lactic/diabetic ketoacidosis), diabetic pre-coma, severe renal failure (GFR &lt;30 ml/min), acute conditions altering renal function (dehydration, severe infection, shock, intravascular iodinated contrast administration), hepatic impairment, hepatic pre-treatment ALT/AST &gt;3x ULN, acute alcohol intoxication, maternal inheritance of diabetes/deafness, breastfeeding</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2747,62 +2747,62 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Accord Healthcare S.L.U, LABORATORI FUNDACIÓ DAU, Pharmadox Healthcare Ltd, Accord Healthcare Polska Sp. z o.o, Accord Healthcare B.V</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/21/1611/001, EU/1/21/1611/002, EU/1/21/1611/003, EU/1/21/1611/004, EU/1/21/1611/005, EU/1/21/1611/006</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>24 March 2022</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>"Date of Latest Renewal": "",</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2 years</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>No special storage conditions required</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Aluminium/aluminium blister packs containing 30, 60, or 180 film-coated tablets; Cartons contain individual blister packs (and/or inserts if applicable)</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>"Legal Category": "",</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>A10BD08</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Accord Healthcare S.L.U, LABORATORI FUNDACIÓ DAU (SpA carrier), Pharmadox Healthcare Ltd, Accord Healthcare Polska Sp. z o.o, Accord Healthcare B.V</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hydroxypropylcellulose, Low-substitute hydroxypropylcellulose, Microcrystalline cellulose, Magnesium stearate, Hypromellose, Titanium dioxide (E171, as TiO2), Iron oxide yellow (E172, FeOOH), Macrogol 6000, Talc</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>vildagliptin-metformin-hydrochloride-accord-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
@@ -2814,57 +2814,57 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Trepulmix</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>treprostinil (as sodium salt)</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>['1 mg/ml', '2.5 mg/ml', '5 mg/ml', '10 mg/ml']</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Solution for infusion</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Subcutaneous use</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>treatment of adult patients with chronic thromboembolic pulmonary hypertension (CTEPH) who are inoperable or who have persistent or recurrent CTEPH after surgical treatment, classified as WHO Functional Class III or IV</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Recommended initial infusion rate is 1.25 ng/kg/min. Dose adjustments should be made gradually under medical supervision, typically increasing by 1.25 ng/kg/min increments per week for the first four weeks, then by 2.5 ng/kg/min increments. The maintenance dose should improve symptoms and be tolerable. Doses should be individualized, and abrupt withdrawal should be avoided. Dosing should be cautious in patients with hepatic or renal impairment and in elderly/pediatric patients. Special considerations include hepatorenal impairment, obesity, and population subgroups.</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to treprostinil or any excipient; Pulmonary veno-occlusive disease; Severe decompensated left heart failure; Severe hepatic impairment (Child-Pugh Class C); Active gastrointestinal ulcer; Intracranial haemorrhage; gastrointestinal injury or bleeding; Congenital or acquired valvular defects with myocardial dysfunction; Severe coronary heart disease or unstable angina; Myocardial infarction within the last six months; Severe arrhythmias; Cerebrovascular events within the last three months; Co-administration with other prostanoids</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Continuous infusion required; potential for prolonged hypotension; risk of pulmonary oedema; bleeding risk with platelet inhibitors; caution with hepatic impairment (dose reduction, avoid severe impairment), renal impairment (monitor exposure), elderly (monitor hepato/renalfunction), obesity (use ideal weight), pediatric population (not indicated); withdrawal risk (rebound PH); special administration procedures (patient training, infusion device requirements, backup pump); sodium content may affect controlled sodium diet; drug interactions (CYP2C8 inhibitors/enzymes, bosentan, sildenafil, diuretics, antihypertensives, other vasodilators, platelet inhibitors) may require dose adjustment or monitoring; risk management (rebound effects, P450 interactions); restricted medical prescription; proper disposal and coding requirements (chip technology)</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SciPharm Sàrl located at 7, Fausermillen, L-6689 Mertert, Luxembourg</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2874,52 +2874,52 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>3 years when unopened (section 6.3); 30 days after first opening (section 6.3)</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>No special storage required (sections 6.4, 7); Maintain at controlled room temperature (per variations in package leaflet) and discard after 30 days of first opening for vials (section 6.3); During continuous subcutaneous infusion, single reservoir must be used within 72 hours at 37°C (section 6.3)</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>10ml Type I clear glass vials containing sterile solution sealed with a rubber teflon-coated stopper and color-coded cap (yellow for 1mg/ml, blue for 2.5mg/ml, green for 5mg/ml, red for 10mg/ml). Cartons contain one vial. Not all pack sizes marketed (sections 6.5, 6.5.1)</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Restricted medical prescription (annex II)</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>B01AC21</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>AOP Orphan Pharmaceuticals GmbH located at Leopold-Ungar-Platz 2, 1190 Vienna, Austria (section 10.3)</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Sodium citrate, Sodium chloride, Sodium hydroxide, Hydrochloric acid, Metacresol, Water for injections (sections 2, 6.1)</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>trepulmix-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
@@ -2931,112 +2931,112 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics (SmPC)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Talmanco</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>tadalafil</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>20 mg</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Film-coated tablet</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>oral</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Pulmonary arterial hypertension (PAH) in adults and children aged 2 years and above classified as WHO functional class II or III.</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Adults: 40 mg (two 20 mg tablets) once daily; Pediatric patients ≥ 2 years (weight ≥40 kg): 40 mg (two 20 mg tablets) once daily; (weight &lt;40 kg): 20 mg (one 20 mg tablet) or oral suspension (10 mL) once daily; Patients &lt; 65 years with renal impairment: Dose adjustments based on severity.</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to tadalafil or excipients; Recent acute myocardial infarction within 90 days; Severe hypotension (&lt;90/50 mm Hg); Use of organic nitrates; Use of riociguat; History of non-arteritic anterior ischemic optic neuropathy (NAION); Severe renal impairment.</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Use with caution in cardiovascular diseases, hepatic impairment, renal impairment, patients with anatomical deformations of the penis, sickle cell anaemia; Avoid use during acute hypotensive states; Monitor for priapism; Be cautious with alpha-blockers, nitrates, CYP3A4 inhibitors/inducers; Use not recommended in pregnancy, except if necessary after consultation; Discontinue if sudden vision/hearing loss.</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Viatris Limited</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/16/1153/001; EU/1/16/1153/002; EU/1/16/1153/003; EU/1/16/1153/004</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>09 January 2017</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>09 November 2021</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>No special storage conditions required.</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>PVC/PE/PVdC-Alu blisters in carton containing 28 or 56 film-coated tablets; Perforated unit dose blisters containing 28 × 1 or 56 × 1 film-coated tablets.</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Prescription only (indirectly indicated by restricted medical prescription under supply conditions).</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>G04BE08</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>McDermott Laboratories Limited t/a Gerard Laboratories t/a Mylan Dublin; Mylan Hungary Kft; Mylan Germany GmbH (Bad Homburg v. d. Hoehe)</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Lactose; Lactose monohydrate; Hypromellose; Titanium dioxide; Triacetin; Povidone; Sodium laurilsulfate; Poloxamer 188; Anycrsytalline cellulose; Croscarmellose sodium; Colloidal anhydrous silica; Magnesium stearate;</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>talmanco-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
@@ -3048,57 +3048,57 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Summary of Product Characteristics",</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Sitagliptin/Metformin hydrochloride Mylan",</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Sitagliptin, Metformin hydrochloride",</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>50 mg/850 mg; 50 mg/1,000 mg (each tablet contains sitagliptin hydrochloride equivalent to 50 mg of sitagliptin and metformin hydrochloride equivalent to 850 mg or 1,000 mg, respectively)",</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Film-coated tablets (pink or peach/brown capsule-shaped, biconvex, with debossing: 'M'/'SM5' for 50mg/850mg tablets and 'M'/'SM7' for 50mg/1,000mg tablets)",</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Oral",</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Type 2 diabetes mellitus monotherapy or as add-on therapy with metformin, sulphonylurea, insulin, or PPAR-γ agonist; triple combination add-on to insulin",</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>50 mg sitagliptin twice daily, with metformin dose individualized based on patient tolerance and renal function; inform patients of dose adjustments needed for renal/hepatic impairment; no effect on driving; interact with food differently and delay absorption slightly. Correct weight gain vs. sulphonylurea; less hypoglycemia.",</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Hypersensitivity to active substances or excipients; any type of acute metabolic acidosis (lactic acidosis, diabetic ketoacidosis); diabetic pre-coma; severe renal failure (GFR &lt; 30 mL/min); acute conditions altering renal function (dehydration, infection, shock); hepatic impairment; acute alcohol intoxication; breastfeeding.",</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Acute pancreatitis (dose-dependent risk) - discontinue upon suspicion; lactic acidosis (rare/bad outcome) - discontinue during renal/hepatic impairment or dehydration, monitor electrolytes; warn patients, signs: feeling cold/unwell, stomach pain, breathing difficulties, hypothermia/coma; hypersensitivity reactions (anaphylaxis, angioedema, skin reactions, Stevens-Johnson); revaccination not advised; pregnancy and lactation (category D for metformin): risk to fetus/contraindicated during breastfeeding/possible distribution in milk; pediatric use (not effective for age 10-17 yr)",</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Mylan Pharmaceuticals Limited",</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3108,32 +3108,32 @@
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>16 February 2022",</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Not found (explicitly mentioned in field)",</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>2 years",</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>No special storage conditions required. Keep out of sight and reach of children. Store below 25°C.",</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>PVC/PE/PVdC-Alu blisters (containing 14, 56, 98, or 196 tablets; multi-pack of 196 tablets), HDPE bottles (90 or 196 tablets). See sections 6.5 and 3. Details of specific pack formats for posology.",</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Prescription only medicine (POM).",</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
@@ -3143,17 +3143,17 @@
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Mylan Pharmaceuticals Limited (Holder), Medis International; Mylan Hungary Kft; Mylan Germany GmbH (Blister details under Operation  A. conditions; Ph"]</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Microcrystalline cellulose, colloidal anhydrous silica, croscarmellose sodium, sodium laurilsulfate, povidone, sodium stearyl fumarate, poly(vinyl alcohol), macrogol, talc, titanium dioxide (E171), red iron oxide (E172), yellow iron oxide (E172) or black iron oxide (E172). Less than 1 mmol sodium (= essentially sodium-free).",</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>sitagliptin-metformin-hydrochloride-mylan-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
@@ -3165,112 +3165,112 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics (SPC/SmPC)</t>
+          <t>EPA Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Prasugrel Viatris 5 mg film-coated tablets; Prasugrel Viatris 10 mg film-coated tablets</t>
+          <t>Winrevair 45 mg powder and solvent for solution for injection; Winrevair 60 mg powder and solvent for solution for injection</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>prasugrel</t>
+          <t>sotatercept</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5 mg tablet (equivalent to 5 mg prasugrel) or 10 mg tablet (equivalent to 10 mg prasugrel). Special strengths: 5 mg maintenance dose for patients ≥75 years or &lt;60 kg</t>
+          <t>Each 45 mg vial contains 45 mg of sotatercept, and after reconstitution, each mL of solution contains 50 mg of sotatercept. Each 60 mg vial contains 60 mg of sotatercept, and after reconstitution, each mL of solution contains 50 mg of sotatercept.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Film-coated tablets for oral use. Prasugrel Viatris 5 mg tablets are yellow, capsule-shaped, biconvex. Prasugrel Viatris 10 mg tablets are beige, capsule-shaped, biconvex</t>
+          <t>Powder and solvent for solution for injection (powder for injection)</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Oral</t>
+          <t>Subcutaneous use</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Prevention of atherothrombotic events (myocardial infarction, stroke, death) in adult patients with acute coronary syndrome (unstable angina, NSTEMI, STEMI) undergoing primary or delayed PCI, usually coadministered with acetylsalicylic acid (ASA)</t>
+          <t>The treatment of pulmonary arterial hypertension (PAH) in adult patients with WHO Functional Class II to III to improve exercise capacity.</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Adults: 60 mg loading dose followed by 10 mg daily for general population. Exceptions: ≥75 years -&gt; reduced maintenance dose of 5 mg; &lt;60 kg -&gt; reduced maintenance dose of 5 mg; Renal/hepatic impairment -&gt; no dose adjustment needed but caution advised. Paediatric population: not indicated (&lt;18 years, except specified study)</t>
+          <t>Administered once every 3 weeks as a single subcutaneous injection. Recommended starting dose: 0.3 mg/kg. Recommended target dose: 0.7 mg/kg. Dose adjustment: based on body weight, blood tests (platelet count, hemoglobin levels).</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to active substance or excipients, active pathological bleeding, history of stroke or TIA, severe hepatic impairment (Child Pugh Class C)</t>
+          <t>Hypersensitivity to sotatercept or any excipient listed in section 6.1. Patients with platelet counts consistently &lt;50 x 10^9/L before initiating treatment.</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>Risk of bleeding (gastrointestinal tract predominant); caution in patients ≥75 years, &lt;60 kg, renal/hepatic impairment; reduce dose in specified cases; surgical patients may need temporary discontinuation ≥7 days before procedure; hypersensitivity reactions including angioedema; risk of bleeding if loading dose administered too early in NSTEMI (average 4+ hours before PCI increases bleeding risk); interaction with warfarin, NSAIDs, morphine, CYP3A inhibitors/inducers may be clinically significant</t>
+          <t>Traceability: Record batch number. Erythrocytosis: Possible increases in hemoglobin/hemoglobinuria. Caution in patients with increased thromboembolic risk. Thrombocytopenia: Possible decrease in platelet count. Etc.</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>Viatris Limited</t>
+          <t>Merck Sharp &amp; Dohme B.V.</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/24/1850/001; EU/1/24/1850/002; EU/1/24/1850/003; EU/1/24/1850/004; EU/1/24/1850/005; EU/1/24/1850/006; EU/1/24/1850/007; EU/1/24/1850/008</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>16 May 2018</t>
+          <t>22 August 2024</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>20 March 2023</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>3 years for unopened vials.</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5 mg formulations: Do not store above 30°C. Protect from moisture (original package). 10 mg formulations (bottles): Do not store above 25°C, protect from moisture. Blister packs: Do not store above 30°C, protect from moisture. All formulations should be protected from light if specified by the particular packaging.</t>
+          <t>Store in a refrigerator (2 C – 8 °C). Do not freeze. Store in the original package to protect from light. The medicinal product should be used within 4 hours after reconstitution.</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>Available in plastic bottles containing desiccant and 28/30 tablets, and/or foil-sealed blisters containing various combinations of 28, 30, 84, 90, 98 tablets, with specific combinations for 5mg and 10mg forms. Cartons contain 1 bottle or blister pack.</t>
+          <t>Kit components - vial, prefilled syringe (solvent), vial adaptor, dosing syringe, needle, alcohol wipes. Strength specific kits -  45 mg, 60 mg, 2 x 45 mg, 2 x 60 mg.</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Not explicitly stated, but likely Prescription Only Medication (POM) given the nature of the product and context</t>
+          <t>Not Explicitly Stated</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>B01AC22</t>
+          <t>C02KX06</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>Gerard Laboratories / Mylan Dublin, Ireland; Mylan Hungary Kft., Hungary; McDermott Laboratories / Mylan, Ireland</t>
+          <t>Manufacturer of active substance: AbbVie Bioresearch Center. Manufacturer responsible for batch release: Merck Sharp &amp; Dohme B.V.</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>Common excipients: microcrystalline cellulose, mannitol, crospovidone, silica colloidal anhydrous, magnesium stearate, polyvinyl alcohol, talc, titanium dioxide (E171), glyceryl monocaprylocaprate, sodium lauryl sulfate. For 5mg only: iron oxide yellow (E172); for 10mg additionally: iron  oxide red (E172), sunset yellow FCF aluminium lake (E110)</t>
+          <t>Citric acid monohydrate (E330), Sodium citrate (E331), Polysorbate 80 (E433), Sucrose, Water for injections</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>prasugrel-viatris-epar-product-information_en.pdf</t>
+          <t>winrevair-epar-product-information_en.pdf.pdf</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
@@ -3287,107 +3287,107 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope (used as Marketing Name) 1.3 mg/ml powder and solvent for solution for injection; Omnitrope (5 mg/ml) powder and solvent for solution for injection; Omnitrope (5 mg/1.5 ml) solution for injection in cartridge; Omnitrope (10 mg/1.5 ml) solution for injection in cartridge; Omnitrope (15 mg/1.5 ml) solution for injection in cartridge",</t>
+          <t>Wegovy",  // Includes various strengths and formulations like Wegovy 0.25 mg, 0.5 mg, etc. and Wegovy FlexTouch</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Somatropin (recombinant human growth hormone) for all products",</t>
+          <t>semaglutide",</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: 1.3 mg somatropin (4 IU) per ml\nOmnitrope 5 mg/ml: 5 mg somatropin (15 IU) per ml\nOmnitrope 5 mg/1.5 ml: 5 mg (15 IU) per 1.5 ml\nOmnitrope 10 mg/1.5 ml: 10 mg (30 IU) per 1.5 ml\nOmnitrope 15 mg/1.5 ml: 15 mg (45 IU) per 1.5 ml",</t>
+          <t>Semaglutide presented in various strengths: 0.25 mg, 0.5 mg, 1 mg, 1.7 mg, 2.4 mg (See 2. QUALITATIVE AND QUANTITATIVE COMPOSITION). Human glucagon-like peptide-1 (GLP-1) analogue",</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: Powder and solvent for solution for injection\nOmnitrope 1.3 mg/ml: White powder and colourless solvent\nOmnitrope 5 mg/ml: Powder and solvent for solution for injection\nOmnitrope 5 mg/ml: White powder and colourless solution\nOmnitrope 5 mg/1.5 ml: Solution for injection\nOmnitrope 10 mg/1.5 ml: Solution for injection\nOmnitrope 15 mg/1.5 ml: Solution for injection",</t>
+          <t>Solution for injection (clear and colourless isotonic solution; pH=7.4) (See 3. PHARMACEUTICAL FORM).",</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope: Subcutaneous administration for all formulations",</t>
+          <t>Subcutaneous use (See 4.2 Posology and method of administration)",</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Growth hormone deficiency (GHD) in infants/children/adults\nTurner syndrome\nChronic renal insufficiency\nShort children/adolescents born small for gestational age (SGA)\nPrader-Willi syndrome (PWS)",</t>
+          <t>Weight management in adults and adolescents (12 years and above) with obesity (BMI ≥ 30 kg/m²) or overweight (BMI ≥ 27 kg/m² to &lt;30 kg/m2) with at least one weight-related comorbidity. Can also help prevent heart disease (See 4.1 Therapeutic indications and 5.1 Pharmacodynamic properties)",</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1.3 mg/ml: 0.025–0.035 mg/kg/day or 0.7–1.0 mg/m²/day for GHD\n0.035 mg/kg/day or 1.0 mg/m²/day appropted range for PWS\n5 mg/ml: Same dosing as 1.3 mg/ml\nInjectable solutions: Dosing based on body weight/kg or BSA/m². For children, doses vary between 0.025–0.050 mg/kg depending on condition (GHD, Turner, CRI), up to 0.050 mg/kg or 1.4 mg/m² for some indications",</t>
+          <t>Strength-based dose escalation over 16 weeks to reach 2.4 mg weekly (See 4.2 Posology and method of administration). Guidance on starting dose, maintenance dose, missed doses, etc. for adults and adolescents. Special populations (elderly, renal/hepatic impairment, diabetics)",</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to somatropin or excipients\nActive tumors (tumors must be inactive prior to use)\nGrowth promotion in children with closed epiphyses\nAcute critical illness (post-operative complications or trauma etc)",</t>
+          <t>Hypersensitivity to semaglutide or any excipient (See 4.3 Contraindications). Use not recommended in patients with severe renal impairment (eGFR &lt;30 mL/min/1.73m²), severe hepatic impairment, type 1 diabetes, history of pancreatitis, populations not studied (type 1 diabetes, severe renal/hepatic impairment, heart failure NYHA class IV). Caution advised in mild/moderate renal/hepatic impairment, inflammatory bowel disease, diabetic gastroparesis, elderly.",</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>Traceability, Hypoadrenalism risk, Interaction with glucocorticoids\nUse with oral oestrogen therapy: Possible dose adjustment needed\nInsulin sensitivity: Monitor glucose levels\nThyroid function: Monitor TSH and TFTs\nNeoplasms: Monitor for tumor recurrence/second malignancies\nSlipped capital femoral epiphysis monitoring\nBenign intracranial hypertension monitoring\nLeukaemia monitoring\nPancreatitis monitoring\nScoliosis monitoring\nAcute critical illness: WARNING\nElderly: start with lower doses\nPWS: calorie restricted diet, sleep apnoea screening, respiratory infection monitoring, effective weight control before and during treatment\nBenign intracranial hypertension: warning, provide instructions for fontoscopy\n$"Use only clear solution", "Mix only with provided equipment",</t>
+          <t>Traceability (4.4). Aspiration during general anesthesia (4.4). Dehydration risk (4.4). Acute pancreatitis risk (4.4). Use in patients with type 2 diabetes (4.4). Diabetic retinopathy worsening (4.4). Population restrictions (4.4). Interaction with other medicinal products (4.5). Fertility, pregnancy, and lactation (4.6). Driving and using machines (4.7). Effects on ability to drive (4.7).",</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>Sandoz GmbH (Address: Biochemiestr. 10, A-6250 Kundl, Austria)\nNovartis Pharmaceutical Manufacturing GmbH (Address: Biochemiestr. 10, A-6336 Langkampfen, Austria)",</t>
+          <t>Novo Nordisk A/S",</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>EU/1/21/1608/001, EU/1/21/1608/002, EU/1/21/1608/003, EU/1/21/1608/004, EU/1/21/1608/005, EU/1/21/1608/006, EU/1/21/1608/007, EU/1/21/1608/008, EU/1/21/1608/009, EU/1/21/1608/010, EU/1/21/1608/011, EU/1/21/1608/012 (See 8. MARKETING AUTHORISATION NUMBERS)",</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>12 April 2006",</t>
+          <t>06 January 2022 (See 9. DATE OF FIRST AUTHORISATION/RENEWAL OF THE AUTHORISATION)",</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>28 February 2011",</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml powder and solvent, unopened vials: 2 years\nOmnitrope powder: 2 years\nOmnitrope 5 mg/ml: Shelf life varies (mentioned as EU/1/06/332/001 and others without specific on 1.3 mg/ml revisits\nOmnitrope powder and solvent: Shelf life mentioned as 3 years for 5 mg/ml",</t>
+          <t>Pre-filled pen single-dose: 1 year (Stipulated in section 6.3 Shelf life). Before first use: 2 years (Single-dose and FlexTouch). After first use: 6 weeks (See storage details in 6.3 and 6.4 Special precautions for storage). Temperature requirements below 30 °C and/or refrigerated storage.",</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>Refrigerated (2°C–8°C)\nStore protected from light\nDo not freeze\nFrom reconstituted solution: Use within 2-28 days (depending on formulation\nStore opened cartridge in refrigerator",</t>
+          <t>Generally, store in refrigerator (2°C to 8°C). Do not freeze. Protect from light. Single-dose pens discarded after use. FlexTouch pens kept capped for light protection. Wegovy can be stored unrefrigerated up to 28 days at &lt;30°C. Discard if out of refrigerator for &gt;28 days or frozen. For detailed variations, see sections 6.3, 6.4, 6.6 (Instruction for use appendix) for specific product details",</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: 1 vial powder + 1 vial solvent. Outer carton. Single use\nOmnitrope 5 mg/ml: Shelf life mentioned as EU/1/06/332/001 and others without specific storage conditions mentioned in the storage section\nSolvent vial for Omnitrope 5 mg/ml is empty\nOmnitrope 5 mg/1.5 ml: Pen with cartridge and SurePal 5\nOmnitrope 10 mg/1.5 ml: Pen with cartridge and SurePal 10\nOmnitrope 15 mg/1.5 ml: Pen with cartridge and SurePal 15\n ' carries 1.5 ml, solution clear.",</t>
+          <t>Single-dose pre-filled pen: Contains 0.5 mL glass syringe with attached needle, rubber plunger. Contains 4 pen(s). FlexTouch pen: 1.5 mL or 3 mL glass cartridge assembled into injection pen with specific materials. Contains either 4 doses (1.5 mL) or 4 doses (3 mL) of specific drug strength depending on strength",</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Marketing Authorisation Number, subject to medical prescription. Likely Category 2 (Prescription Only)",</t>
+          <t>The text does not explicitly state the 'Legal Category' (e.g., whether it's a prescription-only medicine) but it's typically implied by requiring medical prescription (See 2. Conditions and restrictions, point 2)",</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>H01AC01 (Anterior pituitary lobe hormones and analogues)",</t>
+          <t>A10BJ06 (See 5.1 Pharmacological properties)",</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>Novartis Pharmaceutical Manufacturing GmbH (A-6336 Langkampfen) mentioned separately in section A of Annex II.\nThe cartridge stoppers and seals contained commercial designations.",</t>
+          <t>Novo Nordisk A/S (Bagsværd, Denmark), Novo Nordisk Production SAS (Chartres, France), listed in multiple sections.",</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>Powder: glycine, disodium hydrogen phosphate heptahydrate, sodium dihydrogen phosphate dihydrate/glycine, mannitol" "( for each formulation\nSolvent: water or/Omnitrope 1.3 mg/ml complete list: glycine, disodium hydrogen phosphate heptahydrate, and dihydrate, see section 6.1</t>
+          <t>Disodium phosphate dihydrate, Sodium chloride, Hydrochloric acid/sodium hydroxide (for pH adjustment), Water for injections (for single-dose). Disodium phosphate dihydrate, Propylene glycol, Phenol, Hydrochloric acid/sodium hydroxide (for pH adjustment), Water for injections (for FlexTouch)</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>omnitrope-epar-product-information_en.pdf</t>
+          <t>wegovy-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
@@ -3404,110 +3404,344 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope (used as Marketing Name) 1.3 mg/ml powder and solvent for solution for injection; Omnitrope (5 mg/ml) powder and solvent for solution for injection; Omnitrope (5 mg/1.5 ml) solution for injection in cartridge; Omnitrope (10 mg/1.5 ml) solution for injection in cartridge; Omnitrope (15 mg/1.5 ml) solution for injection in cartridge",</t>
+          <t>Wegovy",  // Includes various strengths and formulations like Wegovy 0.25 mg, 0.5 mg, etc. and Wegovy FlexTouch</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Somatropin (recombinant human growth hormone) for all products",</t>
+          <t>semaglutide",</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: 1.3 mg somatropin (4 IU) per ml\nOmnitrope 5 mg/ml: 5 mg somatropin (15 IU) per ml\nOmnitrope 5 mg/1.5 ml: 5 mg (15 IU) per 1.5 ml\nOmnitrope 10 mg/1.5 ml: 10 mg (30 IU) per 1.5 ml\nOmnitrope 15 mg/1.5 ml: 15 mg (45 IU) per 1.5 ml",</t>
+          <t>Semaglutide presented in various strengths: 0.25 mg, 0.5 mg, 1 mg, 1.7 mg, 2.4 mg (See 2. QUALITATIVE AND QUANTITATIVE COMPOSITION). Human glucagon-like peptide-1 (GLP-1) analogue",</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: Powder and solvent for solution for injection\nOmnitrope 1.3 mg/ml: White powder and colourless solvent\nOmnitrope 5 mg/ml: Powder and solvent for solution for injection\nOmnitrope 5 mg/ml: White powder and colourless solution\nOmnitrope 5 mg/1.5 ml: Solution for injection\nOmnitrope 10 mg/1.5 ml: Solution for injection\nOmnitrope 15 mg/1.5 ml: Solution for injection",</t>
+          <t>Solution for injection (clear and colourless isotonic solution; pH=7.4) (See 3. PHARMACEUTICAL FORM).",</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope: Subcutaneous administration for all formulations",</t>
+          <t>Subcutaneous use (See 4.2 Posology and method of administration)",</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Growth hormone deficiency (GHD) in infants/children/adults\nTurner syndrome\nChronic renal insufficiency\nShort children/adolescents born small for gestational age (SGA)\nPrader-Willi syndrome (PWS)",</t>
+          <t>Weight management in adults and adolescents (12 years and above) with obesity (BMI ≥ 30 kg/m²) or overweight (BMI ≥ 27 kg/m² to &lt;30 kg/m2) with at least one weight-related comorbidity. Can also help prevent heart disease (See 4.1 Therapeutic indications and 5.1 Pharmacodynamic properties)",</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1.3 mg/ml: 0.025–0.035 mg/kg/day or 0.7–1.0 mg/m²/day for GHD\n0.035 mg/kg/day or 1.0 mg/m²/day appropted range for PWS\n5 mg/ml: Same dosing as 1.3 mg/ml\nInjectable solutions: Dosing based on body weight/kg or BSA/m². For children, doses vary between 0.025–0.050 mg/kg depending on condition (GHD, Turner, CRI), up to 0.050 mg/kg or 1.4 mg/m² for some indications",</t>
+          <t>Strength-based dose escalation over 16 weeks to reach 2.4 mg weekly (See 4.2 Posology and method of administration). Guidance on starting dose, maintenance dose, missed doses, etc. for adults and adolescents. Special populations (elderly, renal/hepatic impairment, diabetics)",</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to somatropin or excipients\nActive tumors (tumors must be inactive prior to use)\nGrowth promotion in children with closed epiphyses\nAcute critical illness (post-operative complications or trauma etc)",</t>
+          <t>Hypersensitivity to semaglutide or any excipient (See 4.3 Contraindications). Use not recommended in patients with severe renal impairment (eGFR &lt;30 mL/min/1.73m²), severe hepatic impairment, type 1 diabetes, history of pancreatitis, populations not studied (type 1 diabetes, severe renal/hepatic impairment, heart failure NYHA class IV). Caution advised in mild/moderate renal/hepatic impairment, inflammatory bowel disease, diabetic gastroparesis, elderly.",</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>Traceability, Hypoadrenalism risk, Interaction with glucocorticoids\nUse with oral oestrogen therapy: Possible dose adjustment needed\nInsulin sensitivity: Monitor glucose levels\nThyroid function: Monitor TSH and TFTs\nNeoplasms: Monitor for tumor recurrence/second malignancies\nSlipped capital femoral epiphysis monitoring\nBenign intracranial hypertension monitoring\nLeukaemia monitoring\nPancreatitis monitoring\nScoliosis monitoring\nAcute critical illness: WARNING\nElderly: start with lower doses\nPWS: calorie restricted diet, sleep apnoea screening, respiratory infection monitoring, effective weight control before and during treatment\nBenign intracranial hypertension: warning, provide instructions for fontoscopy\n$"Use only clear solution", "Mix only with provided equipment",</t>
+          <t>Traceability (4.4). Aspiration during general anesthesia (4.4). Dehydration risk (4.4). Acute pancreatitis risk (4.4). Use in patients with type 2 diabetes (4.4). Diabetic retinopathy worsening (4.4). Population restrictions (4.4). Interaction with other medicinal products (4.5). Fertility, pregnancy, and lactation (4.6). Driving and using machines (4.7). Effects on ability to drive (4.7).",</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>Sandoz GmbH (Address: Biochemiestr. 10, A-6250 Kundl, Austria)\nNovartis Pharmaceutical Manufacturing GmbH (Address: Biochemiestr. 10, A-6336 Langkampfen, Austria)",</t>
+          <t>Novo Nordisk A/S",</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>EU/1/12/806/001, EU/1/12/806/002, EU/1/12/806/003, EU/1/12/806/004, EU/1/12/806/005, EU/1/12/806/007, EU/1/12/806/008, EU/1/12/806/009</t>
+          <t>EU/1/21/1608/001, EU/1/21/1608/002, EU/1/21/1608/003, EU/1/21/1608/004, EU/1/21/1608/005, EU/1/21/1608/006, EU/1/21/1608/007, EU/1/21/1608/008, EU/1/21/1608/009, EU/1/21/1608/010, EU/1/21/1608/011, EU/1/21/1608/012 (See 8. MARKETING AUTHORISATION NUMBERS)",</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>12 April 2006",</t>
+          <t>06 January 2022 (See 9. DATE OF FIRST AUTHORISATION/RENEWAL OF THE AUTHORISATION)",</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>28 February 2011",</t>
+          <t>Not found (explicitly mentioned in field)",</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml powder and solvent, unopened vials: 2 years\nOmnitrope powder: 2 years\nOmnitrope 5 mg/ml: Shelf life varies (mentioned as EU/1/06/332/001 and others without specific on 1.3 mg/ml revisits\nOmnitrope powder and solvent: Shelf life mentioned as 3 years for 5 mg/ml",</t>
+          <t>Pre-filled pen single-dose: 1 year (Stipulated in section 6.3 Shelf life). Before first use: 2 years (Single-dose and FlexTouch). After first use: 6 weeks (See storage details in 6.3 and 6.4 Special precautions for storage). Temperature requirements below 30 °C and/or refrigerated storage.",</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>Refrigerated (2°C–8°C)\nStore protected from light\nDo not freeze\nFrom reconstituted solution: Use within 2-28 days (depending on formulation\nStore opened cartridge in refrigerator",</t>
+          <t>Generally, store in refrigerator (2°C to 8°C). Do not freeze. Protect from light. Single-dose pens discarded after use. FlexTouch pens kept capped for light protection. Wegovy can be stored unrefrigerated up to 28 days at &lt;30°C. Discard if out of refrigerator for &gt;28 days or frozen. For detailed variations, see sections 6.3, 6.4, 6.6 (Instruction for use appendix) for specific product details",</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>Omnitrope 1.3 mg/ml: 1 vial powder + 1 vial solvent. Outer carton. Single use\nOmnitrope 5 mg/ml: Shelf life mentioned as EU/1/06/332/001 and others without specific storage conditions mentioned in the storage section\nSolvent vial for Omnitrope 5 mg/ml is empty\nOmnitrope 5 mg/1.5 ml: Pen with cartridge and SurePal 5\nOmnitrope 10 mg/1.5 ml: Pen with cartridge and SurePal 10\nOmnitrope 15 mg/1.5 ml: Pen with cartridge and SurePal 15\n ' carries 1.5 ml, solution clear.",</t>
+          <t>Single-dose pre-filled pen: Contains 0.5 mL glass syringe with attached needle, rubber plunger. Contains 4 pen(s). FlexTouch pen: 1.5 mL or 3 mL glass cartridge assembled into injection pen with specific materials. Contains either 4 doses (1.5 mL) or 4 doses (3 mL) of specific drug strength depending on strength",</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Marketing Authorisation Number, subject to medical prescription. Likely Category 2 (Prescription Only)",</t>
+          <t>The text does not explicitly state the 'Legal Category' (e.g., whether it's a prescription-only medicine) but it's typically implied by requiring medical prescription (See 2. Conditions and restrictions, point 2)",</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>H01AC01 (Anterior pituitary lobe hormones and analogues)",</t>
+          <t>A10BJ06 (See 5.1 Pharmacological properties)",</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>Novartis Pharmaceutical Manufacturing GmbH (A-6336 Langkampfen) mentioned separately in section A of Annex II.\nThe cartridge stoppers and seals contained commercial designations.",</t>
+          <t>Novo Nordisk A/S (Bagsværd, Denmark), Novo Nordisk Production SAS (Chartres, France), listed in multiple sections.",</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>Powder: glycine, disodium hydrogen phosphate heptahydrate, sodium dihydrogen phosphate dihydrate/glycine, mannitol" "( for each formulation\nSolvent: water or/Omnitrope 1.3 mg/ml complete list: glycine, disodium hydrogen phosphate heptahydrate, and dihydrate, see section 6.1</t>
+          <t>Disodium phosphate dihydrate, Sodium chloride, Hydrochloric acid/sodium hydroxide (for pH adjustment), Water for injections (for single-dose). Disodium phosphate dihydrate, Propylene glycol, Phenol, Hydrochloric acid/sodium hydroxide (for pH adjustment), Water for injections (for FlexTouch)</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>omnitrope-epar-product-information_en.pdf</t>
+          <t>wegovy-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1758026352056</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Summary of Product Characteristics (SmPC)</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Wegovy 0.25 mg solution for injection in pre-filled pen; Wegovy 0.5 mg solution for injection in pre-filled pen; Wegovy 1 mg solution for injection in pre-filled pen; Wegovy 1.7 mg solution for injection in pre-filled pen; Wegovy 2.4 mg solution for injection in pre-filled pen; Wegovy 0.25 mg FlexTouch solution for injection in pre-filled pen; Wegovy 0.5 mg FlexTouch solution for injection in pre-filled pen; Wegovy 1 mg FlexTouch solution for injection in pre-filled pen; Wegovy 1.7 mg FlexTouch solution for injection in pre-filled pen; Wegovy 2.4 mg FlexTouch solution for injection in pre-filled pen</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>semaglutide</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0.25 mg; 0.5 mg; 1 mg; 1.7 mg; 2.4 mg; For single-dose pens: 0.25 mg (FlexTouch: 1 mg in 1.5 mL); 0.5 mg (FlexTouch: 2 mg in 1.5 mL/3 mL); 1 mg (FlexTouch: 4 mg in 3 mL); 1.7 mg (FlexTouch: 6.8 mg in 3 mL); 2.4 mg (FlexTouch: 9.6 mg in 3 mL)</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Solution for injection; Clear and colourless isotonic solution; pH=7.4</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Subcutaneous use</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Weight management for adults (BMI ≥30 kg/m² or ≥27 kg/m² with weight-related comorbidity) or adolescents (BMI ≥95th percentile and body weight &gt;60 kg). For diabetes, used as adjunct to calorie-reduced diet and physical activity, not substitute for insulin, contraindicated in Type 1 diabetes, severe renal/hepatic impairment (unless mild/moderate) and not recommended in Type 2 diabetics with uncontrolled/instable diabatic retinopathy.</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Dose escalation over 16 weeks: Week 1-4: 0.25 mg weekly; Week 5-8: 0.5 mg weekly; Week 9-12: 1 mg weekly; Week 13-16: 1.7 mg weekly; Week 17- beyond: 2.4 mg weekly. For adolescents same. Missed doses: Use missed dose if ≤5 day delay, else skip. Maximum dose limited to 2.4 mg weekly.</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Hypersensitivity to semaglutide or excipients. Not recommended for use in severely reduced renal/hepatic function or severe heart failure.</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Novo Nordisk A/S</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>EU/1/21/1608/001; EU/1/21/1608/002; EU/1/21/1608/003; EU/1/21/1608/004; EU/1/21/1608/005; EU/1/21/1608/006; EU/1/21/1608/007; EU/1/21/1608/008; EU/1/21/1608/009; EU/1/21/1608/010; EU/1/21/1608/011; EU/1/21/1608/012</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>06 January 2022</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>Store in refrigerator (2°C-8°C), keep in original carton. Do not freeze. Keep away from cooling elements. Store unrefrigerated ≤30°C temporarily. Keep capped. Discard if frozen, light exposed, out of fridge &gt;28 days.</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Single-dose: Pre-filled pen with glass syringe and needle shield. FlexTouch: Pre-filled pen assembly with cartridge. Packs: 4 pens with instruction leaflet. Route choice may affect formulation (single-dose/or FlexTouch).</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Social distribution</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>A10BJ06</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>Novo Nordisk A/S (DK), Novo Nordisk Production SAS (FR)</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>Single-dose: disodium phosphate dihydrate, sodium chloride, hydrochloric acid/sodium hydroxide (for pH adjustment), water for injection.FlexTouch: disodium phosphate dihydrate, propylene glycol, phenol, sodium chloride, hydrochloric acid/sodium hydroxide, water for injection</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>wegovy-epar-product-information_en.pdf</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>1758026352056</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Summary of Product Characteristics (SmPC)</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Wegovy 0.25 mg solution for injection in pre-filled pen; Wegovy 0.5 mg solution for injection in pre-filled pen; Wegovy 1 mg solution for injection in pre-filled pen; Wegovy 1.7 mg solution for injection in pre-filled pen; Wegovy 2.4 mg solution for injection in pre-filled pen; Wegovy 0.25 mg FlexTouch solution for injection in pre-filled pen; Wegovy 0.5 mg FlexTouch solution for injection in pre-filled pen; Wegovy 1 mg FlexTouch solution for injection in pre-filled pen; Wegovy 1.7 mg FlexTouch solution for injection in pre-filled pen; Wegovy 2.4 mg FlexTouch solution for injection in pre-filled pen</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>semaglutide</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0.25 mg; 0.5 mg; 1 mg; 1.7 mg; 2.4 mg; For single-dose pens: 0.25 mg (FlexTouch: 1 mg in 1.5 mL); 0.5 mg (FlexTouch: 2 mg in 1.5 mL/3 mL); 1 mg (FlexTouch: 4 mg in 3 mL); 1.7 mg (FlexTouch: 6.8 mg in 3 mL); 2.4 mg (FlexTouch: 9.6 mg in 3 mL)</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Solution for injection; Clear and colourless isotonic solution; pH=7.4</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Subcutaneous use</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Weight management for adults (BMI ≥30 kg/m² or ≥27 kg/m² with weight-related comorbidity) or adolescents (BMI ≥95th percentile and body weight &gt;60 kg). For diabetes, used as adjunct to calorie-reduced diet and physical activity, not substitute for insulin, contraindicated in Type 1 diabetes, severe renal/hepatic impairment (unless mild/moderate) and not recommended in Type 2 diabetics with uncontrolled/instable diabatic retinopathy.</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Dose escalation over 16 weeks: Week 1-4: 0.25 mg weekly; Week 5-8: 0.5 mg weekly; Week 9-12: 1 mg weekly; Week 13-16: 1.7 mg weekly; Week 17- beyond: 2.4 mg weekly. For adolescents same. Missed doses: Use missed dose if ≤5 day delay, else skip. Maximum dose limited to 2.4 mg weekly.</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Hypersensitivity to semaglutide or excipients. Not recommended for use in severely reduced renal/hepatic function or severe heart failure.</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>Novo Nordisk A/S</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>EU/1/21/1608/001; EU/1/21/1608/002; EU/1/21/1608/003; EU/1/21/1608/004; EU/1/21/1608/005; EU/1/21/1608/006; EU/1/21/1608/007; EU/1/21/1608/008; EU/1/21/1608/009; EU/1/21/1608/010; EU/1/21/1608/011; EU/1/21/1608/012</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>06 January 2022</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>Store in refrigerator (2°C-8°C), keep in original carton. Do not freeze. Keep away from cooling elements. Store unrefrigerated ≤30°C temporarily. Keep capped. Discard if frozen, light exposed, out of fridge &gt;28 days.</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Single-dose: Pre-filled pen with glass syringe and needle shield. FlexTouch: Pre-filled pen assembly with cartridge. Packs: 4 pens with instruction leaflet. Route choice may affect formulation (single-dose/or FlexTouch).</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Social distribution</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>A10BJ06</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>Novo Nordisk A/S (DK), Novo Nordisk Production SAS (FR)</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>Single-dose: disodium phosphate dihydrate, sodium chloride, hydrochloric acid/sodium hydroxide (for pH adjustment), water for injection.FlexTouch: disodium phosphate dihydrate, propylene glycol, phenol, sodium chloride, hydrochloric acid/sodium hydroxide, water for injection</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>wegovy-epar-product-information_en.pdf</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
         <is>
           <t>1758026352056</t>
         </is>
